--- a/BackTest/2019-10-29 BackTest DAD.xlsx
+++ b/BackTest/2019-10-29 BackTest DAD.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>6640.6106</v>
       </c>
       <c r="G2" t="n">
-        <v>396472.2903882432</v>
+        <v>456.2</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>9687.550356832</v>
       </c>
       <c r="G3" t="n">
-        <v>386784.7400314112</v>
+        <v>456</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>46.4119</v>
       </c>
       <c r="G4" t="n">
-        <v>386738.3281314112</v>
+        <v>456.2</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>1976.848</v>
       </c>
       <c r="G5" t="n">
-        <v>388715.1761314112</v>
+        <v>456</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>220.2154</v>
       </c>
       <c r="G6" t="n">
-        <v>388494.9607314112</v>
+        <v>456.2</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>3257.3427</v>
       </c>
       <c r="G7" t="n">
-        <v>391752.3034314112</v>
+        <v>456.05</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,7 +669,7 @@
         <v>452.5181</v>
       </c>
       <c r="G8" t="n">
-        <v>391299.7853314112</v>
+        <v>455.95</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +705,7 @@
         <v>16311.1595</v>
       </c>
       <c r="G9" t="n">
-        <v>374988.6258314112</v>
+        <v>455.75</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,7 +741,7 @@
         <v>6218.2739</v>
       </c>
       <c r="G10" t="n">
-        <v>374988.6258314112</v>
+        <v>455.45</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,7 +777,7 @@
         <v>5472.0467</v>
       </c>
       <c r="G11" t="n">
-        <v>380460.6725314112</v>
+        <v>455.05</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,7 +813,7 @@
         <v>488.2683</v>
       </c>
       <c r="G12" t="n">
-        <v>380460.6725314112</v>
+        <v>454.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,7 +849,7 @@
         <v>1459.0233</v>
       </c>
       <c r="G13" t="n">
-        <v>381919.6958314112</v>
+        <v>454.85</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,7 +885,7 @@
         <v>1040.8708</v>
       </c>
       <c r="G14" t="n">
-        <v>380878.8250314112</v>
+        <v>454.75</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -903,7 +921,7 @@
         <v>9416.535599999999</v>
       </c>
       <c r="G15" t="n">
-        <v>390295.3606314112</v>
+        <v>454.95</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -938,7 +957,7 @@
         <v>2507.6601</v>
       </c>
       <c r="G16" t="n">
-        <v>392803.0207314112</v>
+        <v>455.65</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -973,7 +993,7 @@
         <v>2337.4236</v>
       </c>
       <c r="G17" t="n">
-        <v>390465.5971314112</v>
+        <v>456.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1008,7 +1029,7 @@
         <v>12488.8734</v>
       </c>
       <c r="G18" t="n">
-        <v>402954.4705314112</v>
+        <v>456.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1043,7 +1065,7 @@
         <v>3.5325</v>
       </c>
       <c r="G19" t="n">
-        <v>402958.0030314112</v>
+        <v>456.65</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1078,7 +1101,7 @@
         <v>1927.3127</v>
       </c>
       <c r="G20" t="n">
-        <v>401030.6903314111</v>
+        <v>456.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,7 +1137,7 @@
         <v>1085.7071</v>
       </c>
       <c r="G21" t="n">
-        <v>401030.6903314111</v>
+        <v>456.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1148,7 +1173,7 @@
         <v>7689.2653</v>
       </c>
       <c r="G22" t="n">
-        <v>393341.4250314111</v>
+        <v>456.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1183,7 +1209,7 @@
         <v>55.0266</v>
       </c>
       <c r="G23" t="n">
-        <v>393396.4516314111</v>
+        <v>456</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1218,7 +1245,7 @@
         <v>2238.0712</v>
       </c>
       <c r="G24" t="n">
-        <v>391158.3804314111</v>
+        <v>455.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1253,7 +1281,7 @@
         <v>26594.8485</v>
       </c>
       <c r="G25" t="n">
-        <v>364563.5319314111</v>
+        <v>455.45</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1273,6 +1301,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1294,7 +1323,7 @@
         <v>3456.2065</v>
       </c>
       <c r="G26" t="n">
-        <v>368019.738431411</v>
+        <v>455.05</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1314,6 +1343,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1335,7 +1365,7 @@
         <v>5811.5231</v>
       </c>
       <c r="G27" t="n">
-        <v>362208.215331411</v>
+        <v>454.65</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1355,6 +1385,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1376,7 +1407,7 @@
         <v>5218.4817</v>
       </c>
       <c r="G28" t="n">
-        <v>367426.6970314111</v>
+        <v>454.8</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1396,6 +1427,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1417,7 +1449,7 @@
         <v>45</v>
       </c>
       <c r="G29" t="n">
-        <v>367381.6970314111</v>
+        <v>454.75</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1435,6 +1467,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1456,7 +1489,7 @@
         <v>7522.3108</v>
       </c>
       <c r="G30" t="n">
-        <v>359859.3862314111</v>
+        <v>454.85</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1474,6 +1507,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1495,7 +1529,7 @@
         <v>494.000906113</v>
       </c>
       <c r="G31" t="n">
-        <v>360353.3871375241</v>
+        <v>455</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -1515,6 +1549,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,7 +1571,7 @@
         <v>10504.476764923</v>
       </c>
       <c r="G32" t="n">
-        <v>370857.8639024471</v>
+        <v>455.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,6 +1589,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1575,7 +1611,7 @@
         <v>83.12390000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>370774.7400024471</v>
+        <v>455.35</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1593,6 +1629,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1614,7 +1651,7 @@
         <v>1019.2701</v>
       </c>
       <c r="G34" t="n">
-        <v>371794.0101024471</v>
+        <v>455.55</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1632,6 +1669,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1653,7 +1691,7 @@
         <v>2496.9195</v>
       </c>
       <c r="G35" t="n">
-        <v>374290.9296024471</v>
+        <v>455.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1671,6 +1709,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1692,7 +1731,7 @@
         <v>535.0617999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>373755.8678024471</v>
+        <v>455.75</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1710,6 +1749,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1731,7 +1771,7 @@
         <v>6473.3455</v>
       </c>
       <c r="G37" t="n">
-        <v>380229.2133024471</v>
+        <v>455.95</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1749,6 +1789,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1770,7 +1811,7 @@
         <v>8091.6179</v>
       </c>
       <c r="G38" t="n">
-        <v>380229.2133024471</v>
+        <v>456.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1788,6 +1829,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1809,7 +1851,7 @@
         <v>4595.5043</v>
       </c>
       <c r="G39" t="n">
-        <v>380229.2133024471</v>
+        <v>456.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1827,6 +1869,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1848,7 +1891,7 @@
         <v>4884.7586</v>
       </c>
       <c r="G40" t="n">
-        <v>375344.4547024471</v>
+        <v>456.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1866,6 +1909,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1887,7 +1931,7 @@
         <v>4912.0165</v>
       </c>
       <c r="G41" t="n">
-        <v>370432.4382024471</v>
+        <v>456.55</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1905,6 +1949,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1926,7 +1971,7 @@
         <v>5968.2287</v>
       </c>
       <c r="G42" t="n">
-        <v>364464.2095024471</v>
+        <v>456.65</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1944,6 +1989,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1965,7 +2011,7 @@
         <v>689.9704</v>
       </c>
       <c r="G43" t="n">
-        <v>364464.2095024471</v>
+        <v>456.75</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1983,6 +2029,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2004,7 +2051,7 @@
         <v>1446.6252</v>
       </c>
       <c r="G44" t="n">
-        <v>365910.8347024471</v>
+        <v>457.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2022,6 +2069,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2043,7 +2091,7 @@
         <v>11.991285403</v>
       </c>
       <c r="G45" t="n">
-        <v>365898.8434170441</v>
+        <v>457.35</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2061,6 +2109,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2082,7 +2131,7 @@
         <v>2824.0378</v>
       </c>
       <c r="G46" t="n">
-        <v>365898.8434170441</v>
+        <v>457.65</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2100,6 +2149,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2121,7 +2171,7 @@
         <v>3635.9074</v>
       </c>
       <c r="G47" t="n">
-        <v>362262.9360170441</v>
+        <v>457.95</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
@@ -2141,6 +2191,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2162,7 +2213,7 @@
         <v>6082.1157</v>
       </c>
       <c r="G48" t="n">
-        <v>356180.820317044</v>
+        <v>457.75</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2180,6 +2231,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2201,7 +2253,7 @@
         <v>6295.7879</v>
       </c>
       <c r="G49" t="n">
-        <v>349885.032417044</v>
+        <v>457.7</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
@@ -2221,6 +2273,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2242,7 +2295,7 @@
         <v>808961.6074</v>
       </c>
       <c r="G50" t="n">
-        <v>1158846.639817044</v>
+        <v>457.5</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -2262,6 +2315,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2283,7 +2337,7 @@
         <v>2784026.545</v>
       </c>
       <c r="G51" t="n">
-        <v>3942873.184817044</v>
+        <v>457.45</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -2303,6 +2357,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2324,7 +2379,7 @@
         <v>1921189.8897</v>
       </c>
       <c r="G52" t="n">
-        <v>5864063.074517044</v>
+        <v>457.45</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -2344,6 +2399,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2365,7 +2421,7 @@
         <v>6260.871519037</v>
       </c>
       <c r="G53" t="n">
-        <v>5857802.202998008</v>
+        <v>457.35</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -2385,6 +2441,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2406,7 +2463,7 @@
         <v>494200</v>
       </c>
       <c r="G54" t="n">
-        <v>5857802.202998008</v>
+        <v>457.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2424,6 +2481,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2445,7 +2503,7 @@
         <v>729740.1506000001</v>
       </c>
       <c r="G55" t="n">
-        <v>6587542.353598008</v>
+        <v>457.05</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2463,6 +2521,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2484,7 +2543,7 @@
         <v>758731.7206</v>
       </c>
       <c r="G56" t="n">
-        <v>6587542.353598008</v>
+        <v>456.85</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2502,6 +2561,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2523,7 +2583,7 @@
         <v>628768.5653</v>
       </c>
       <c r="G57" t="n">
-        <v>7216310.918898008</v>
+        <v>456.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2541,6 +2601,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2562,7 +2623,7 @@
         <v>1157202.691329759</v>
       </c>
       <c r="G58" t="n">
-        <v>7216310.918898008</v>
+        <v>456.6</v>
       </c>
       <c r="H58" t="n">
         <v>1</v>
@@ -2582,6 +2643,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2603,7 +2665,7 @@
         <v>2813916.662290393</v>
       </c>
       <c r="G59" t="n">
-        <v>7216310.918898008</v>
+        <v>456.45</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
@@ -2623,6 +2685,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2644,7 +2707,7 @@
         <v>4026177.4175</v>
       </c>
       <c r="G60" t="n">
-        <v>7216310.918898008</v>
+        <v>456.35</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2662,6 +2725,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2683,7 +2747,7 @@
         <v>4130382.8316</v>
       </c>
       <c r="G61" t="n">
-        <v>7216310.918898008</v>
+        <v>456.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2701,6 +2765,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2722,7 +2787,7 @@
         <v>3645972.2479</v>
       </c>
       <c r="G62" t="n">
-        <v>7216310.918898008</v>
+        <v>456.25</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2740,6 +2805,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2761,7 +2827,7 @@
         <v>1368791.992009607</v>
       </c>
       <c r="G63" t="n">
-        <v>8585102.910907615</v>
+        <v>456.25</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2779,6 +2845,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2800,7 +2867,7 @@
         <v>2080196.7889</v>
       </c>
       <c r="G64" t="n">
-        <v>6504906.122007615</v>
+        <v>456.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2818,6 +2885,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2839,7 +2907,7 @@
         <v>891863.806</v>
       </c>
       <c r="G65" t="n">
-        <v>7396769.928007615</v>
+        <v>456.15</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2857,6 +2925,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2878,7 +2947,7 @@
         <v>2013822.074714597</v>
       </c>
       <c r="G66" t="n">
-        <v>7396769.928007615</v>
+        <v>456.25</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2896,6 +2965,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2917,7 +2987,7 @@
         <v>868800.871517353</v>
       </c>
       <c r="G67" t="n">
-        <v>8265570.799524968</v>
+        <v>456.35</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2935,6 +3005,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2956,7 +3027,7 @@
         <v>1609912.5127</v>
       </c>
       <c r="G68" t="n">
-        <v>8265570.799524968</v>
+        <v>456.55</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2974,6 +3045,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2995,7 +3067,7 @@
         <v>144143.410782647</v>
       </c>
       <c r="G69" t="n">
-        <v>8409714.210307615</v>
+        <v>456.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3013,6 +3085,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3034,7 +3107,7 @@
         <v>10570.936635077</v>
       </c>
       <c r="G70" t="n">
-        <v>8420285.146942692</v>
+        <v>457.25</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3052,6 +3125,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3073,7 +3147,7 @@
         <v>15167.7855</v>
       </c>
       <c r="G71" t="n">
-        <v>8435452.932442691</v>
+        <v>457.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3091,6 +3165,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3112,7 +3187,7 @@
         <v>33084.959</v>
       </c>
       <c r="G72" t="n">
-        <v>8468537.891442692</v>
+        <v>458.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3130,6 +3205,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3151,7 +3227,7 @@
         <v>39093.8493</v>
       </c>
       <c r="G73" t="n">
-        <v>8468537.891442692</v>
+        <v>459.25</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3169,6 +3245,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3190,7 +3267,7 @@
         <v>6532.6407</v>
       </c>
       <c r="G74" t="n">
-        <v>8462005.250742693</v>
+        <v>460.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3208,6 +3285,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3229,7 +3307,7 @@
         <v>2256.6573</v>
       </c>
       <c r="G75" t="n">
-        <v>8459748.593442693</v>
+        <v>460.85</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3247,6 +3325,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3268,7 +3347,7 @@
         <v>4024.5933</v>
       </c>
       <c r="G76" t="n">
-        <v>8463773.186742693</v>
+        <v>461.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3286,6 +3365,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3307,7 +3387,7 @@
         <v>4345.0927</v>
       </c>
       <c r="G77" t="n">
-        <v>8463773.186742693</v>
+        <v>462.15</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3325,6 +3405,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3346,7 +3427,7 @@
         <v>2564.807037313</v>
       </c>
       <c r="G78" t="n">
-        <v>8461208.379705381</v>
+        <v>462.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3364,6 +3445,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3385,7 +3467,7 @@
         <v>6963.6576</v>
       </c>
       <c r="G79" t="n">
-        <v>8468172.037305381</v>
+        <v>463.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3403,6 +3485,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3424,7 +3507,7 @@
         <v>19965.029262687</v>
       </c>
       <c r="G80" t="n">
-        <v>8488137.066568067</v>
+        <v>463.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3442,6 +3525,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3463,7 +3547,7 @@
         <v>30611.721549263</v>
       </c>
       <c r="G81" t="n">
-        <v>8518748.788117331</v>
+        <v>464.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3481,6 +3565,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3502,7 +3587,7 @@
         <v>70730.803350737</v>
       </c>
       <c r="G82" t="n">
-        <v>8589479.591468068</v>
+        <v>465.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3520,6 +3605,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3541,23 +3627,24 @@
         <v>3670.7871</v>
       </c>
       <c r="G83" t="n">
-        <v>8585808.804368068</v>
+        <v>466.55</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
+        <v>1.026607538802661</v>
       </c>
     </row>
     <row r="84">
@@ -3580,7 +3667,7 @@
         <v>3674.8505</v>
       </c>
       <c r="G84" t="n">
-        <v>8589483.654868068</v>
+        <v>467.35</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3590,12 +3677,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3617,13 +3703,13 @@
         <v>5401.6727</v>
       </c>
       <c r="G85" t="n">
-        <v>8584081.982168067</v>
+        <v>468.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3631,6 +3717,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3652,13 +3739,13 @@
         <v>3106.593433611</v>
       </c>
       <c r="G86" t="n">
-        <v>8580975.388734456</v>
+        <v>469.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3666,6 +3753,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3687,13 +3775,13 @@
         <v>12539.370650939</v>
       </c>
       <c r="G87" t="n">
-        <v>8593514.759385396</v>
+        <v>470.15</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3701,6 +3789,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3722,13 +3811,13 @@
         <v>14850.88751545</v>
       </c>
       <c r="G88" t="n">
-        <v>8578663.871869946</v>
+        <v>471.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3736,6 +3825,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3757,7 +3847,7 @@
         <v>4251.6027</v>
       </c>
       <c r="G89" t="n">
-        <v>8582915.474569947</v>
+        <v>472</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3771,6 +3861,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3792,7 +3883,7 @@
         <v>43.5916</v>
       </c>
       <c r="G90" t="n">
-        <v>8582915.474569947</v>
+        <v>472.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3806,6 +3897,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3827,7 +3919,7 @@
         <v>12151.6828</v>
       </c>
       <c r="G91" t="n">
-        <v>8570763.791769946</v>
+        <v>473.65</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3841,6 +3933,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3862,7 +3955,7 @@
         <v>2023.668</v>
       </c>
       <c r="G92" t="n">
-        <v>8568740.123769946</v>
+        <v>474.05</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3876,6 +3969,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3897,7 +3991,7 @@
         <v>886.4087</v>
       </c>
       <c r="G93" t="n">
-        <v>8569626.532469947</v>
+        <v>474.15</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3911,6 +4005,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3932,7 +4027,7 @@
         <v>725.6802</v>
       </c>
       <c r="G94" t="n">
-        <v>8568900.852269948</v>
+        <v>474.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3946,6 +4041,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3967,13 +4063,13 @@
         <v>10339.0337</v>
       </c>
       <c r="G95" t="n">
-        <v>8558561.818569947</v>
+        <v>474.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3981,6 +4077,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4002,13 +4099,13 @@
         <v>4832.952290486</v>
       </c>
       <c r="G96" t="n">
-        <v>8563394.770860434</v>
+        <v>474.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4016,6 +4113,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4037,7 +4135,7 @@
         <v>1139.4832</v>
       </c>
       <c r="G97" t="n">
-        <v>8562255.287660433</v>
+        <v>474.85</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4051,6 +4149,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4072,13 +4171,13 @@
         <v>5764.1785</v>
       </c>
       <c r="G98" t="n">
-        <v>8556491.109160433</v>
+        <v>474.95</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4086,6 +4185,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4107,7 +4207,7 @@
         <v>5221.1802</v>
       </c>
       <c r="G99" t="n">
-        <v>8551269.928960433</v>
+        <v>474.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4121,6 +4221,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4142,7 +4243,7 @@
         <v>34882.7273</v>
       </c>
       <c r="G100" t="n">
-        <v>8516387.201660434</v>
+        <v>474.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4156,6 +4257,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4177,7 +4279,7 @@
         <v>1947.1018</v>
       </c>
       <c r="G101" t="n">
-        <v>8518334.303460434</v>
+        <v>473.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4191,6 +4293,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4212,7 +4315,7 @@
         <v>11218.646450107</v>
       </c>
       <c r="G102" t="n">
-        <v>8518334.303460434</v>
+        <v>473.05</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4226,6 +4329,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4247,7 +4351,7 @@
         <v>6726.1403</v>
       </c>
       <c r="G103" t="n">
-        <v>8511608.163160434</v>
+        <v>472.05</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4261,6 +4365,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4282,7 +4387,7 @@
         <v>21790.9416</v>
       </c>
       <c r="G104" t="n">
-        <v>8489817.221560434</v>
+        <v>471.25</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4296,6 +4401,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4317,7 +4423,7 @@
         <v>905.5431</v>
       </c>
       <c r="G105" t="n">
-        <v>8490722.764660433</v>
+        <v>470.05</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4331,6 +4437,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4352,7 +4459,7 @@
         <v>6503.9048</v>
       </c>
       <c r="G106" t="n">
-        <v>8490722.764660433</v>
+        <v>469.05</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4366,6 +4473,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4387,7 +4495,7 @@
         <v>876147.3589</v>
       </c>
       <c r="G107" t="n">
-        <v>9366870.123560432</v>
+        <v>467.95</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4401,6 +4509,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4422,7 +4531,7 @@
         <v>348707.1363</v>
       </c>
       <c r="G108" t="n">
-        <v>9715577.259860432</v>
+        <v>466.85</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4436,6 +4545,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4457,7 +4567,7 @@
         <v>27634.2537</v>
       </c>
       <c r="G109" t="n">
-        <v>9743211.513560431</v>
+        <v>465.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4471,6 +4581,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4492,7 +4603,7 @@
         <v>87551.7981</v>
       </c>
       <c r="G110" t="n">
-        <v>9830763.311660431</v>
+        <v>465.05</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4506,6 +4617,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4527,13 +4639,13 @@
         <v>322895.779100854</v>
       </c>
       <c r="G111" t="n">
-        <v>9830763.311660431</v>
+        <v>464.55</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4541,6 +4653,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4562,7 +4675,7 @@
         <v>2343633.2153</v>
       </c>
       <c r="G112" t="n">
-        <v>7487130.096360432</v>
+        <v>464.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4576,6 +4689,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4597,7 +4711,7 @@
         <v>3025043.746</v>
       </c>
       <c r="G113" t="n">
-        <v>7487130.096360432</v>
+        <v>463.65</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4611,6 +4725,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4632,13 +4747,13 @@
         <v>1814077.2507</v>
       </c>
       <c r="G114" t="n">
-        <v>5673052.845660432</v>
+        <v>463</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4646,6 +4761,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4667,13 +4783,13 @@
         <v>1411532.1006</v>
       </c>
       <c r="G115" t="n">
-        <v>5673052.845660432</v>
+        <v>462.35</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4681,6 +4797,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4702,7 +4819,7 @@
         <v>695616.5509</v>
       </c>
       <c r="G116" t="n">
-        <v>4977436.294760432</v>
+        <v>461.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4716,6 +4833,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4737,7 +4855,7 @@
         <v>2514.5518</v>
       </c>
       <c r="G117" t="n">
-        <v>4974921.742960433</v>
+        <v>461.25</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4751,6 +4869,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4772,7 +4891,7 @@
         <v>17581.8235</v>
       </c>
       <c r="G118" t="n">
-        <v>4992503.566460432</v>
+        <v>460.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4786,6 +4905,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4807,7 +4927,7 @@
         <v>2038.656</v>
       </c>
       <c r="G119" t="n">
-        <v>4990464.910460432</v>
+        <v>460.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4821,6 +4941,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4842,7 +4963,7 @@
         <v>327.413043478</v>
       </c>
       <c r="G120" t="n">
-        <v>4990792.32350391</v>
+        <v>460.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4856,6 +4977,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest DAD.xlsx
+++ b/BackTest/2019-10-29 BackTest DAD.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:N149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C2" t="n">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D2" t="n">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="E2" t="n">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="F2" t="n">
-        <v>6640.6106</v>
+        <v>23655.7137</v>
       </c>
       <c r="G2" t="n">
-        <v>456.2</v>
+        <v>499261.5773317213</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="C3" t="n">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="D3" t="n">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="E3" t="n">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="F3" t="n">
-        <v>9687.550356832</v>
+        <v>4763.670664135</v>
       </c>
       <c r="G3" t="n">
-        <v>456</v>
+        <v>499261.5773317213</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="C4" t="n">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="D4" t="n">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="E4" t="n">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="F4" t="n">
-        <v>46.4119</v>
+        <v>6094.3135</v>
       </c>
       <c r="G4" t="n">
-        <v>456.2</v>
+        <v>505355.8908317212</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="C5" t="n">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="D5" t="n">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="E5" t="n">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="F5" t="n">
-        <v>1976.848</v>
+        <v>2755.7334</v>
       </c>
       <c r="G5" t="n">
-        <v>456</v>
+        <v>502600.1574317212</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C6" t="n">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="D6" t="n">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="E6" t="n">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F6" t="n">
-        <v>220.2154</v>
+        <v>23430.3301</v>
       </c>
       <c r="G6" t="n">
-        <v>456.2</v>
+        <v>526030.4875317212</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="C7" t="n">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="D7" t="n">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="E7" t="n">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="F7" t="n">
-        <v>3257.3427</v>
+        <v>2814.3758</v>
       </c>
       <c r="G7" t="n">
-        <v>456.05</v>
+        <v>523216.1117317213</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="C8" t="n">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="D8" t="n">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="E8" t="n">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="F8" t="n">
-        <v>452.5181</v>
+        <v>8393.8645</v>
       </c>
       <c r="G8" t="n">
-        <v>455.95</v>
+        <v>514822.2472317212</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="C9" t="n">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="D9" t="n">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="E9" t="n">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="F9" t="n">
-        <v>16311.1595</v>
+        <v>7721.8298</v>
       </c>
       <c r="G9" t="n">
-        <v>455.75</v>
+        <v>514822.2472317212</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="C10" t="n">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="D10" t="n">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="E10" t="n">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="F10" t="n">
-        <v>6218.2739</v>
+        <v>1981.2728</v>
       </c>
       <c r="G10" t="n">
-        <v>455.45</v>
+        <v>514822.2472317212</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="C11" t="n">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="D11" t="n">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="E11" t="n">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="F11" t="n">
-        <v>5472.0467</v>
+        <v>11173.5269</v>
       </c>
       <c r="G11" t="n">
-        <v>455.05</v>
+        <v>503648.7203317212</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="C12" t="n">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D12" t="n">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="E12" t="n">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="F12" t="n">
-        <v>488.2683</v>
+        <v>9552.3279</v>
       </c>
       <c r="G12" t="n">
-        <v>454.7</v>
+        <v>494096.3924317213</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C13" t="n">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="D13" t="n">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="E13" t="n">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F13" t="n">
-        <v>1459.0233</v>
+        <v>37322.5553</v>
       </c>
       <c r="G13" t="n">
-        <v>454.85</v>
+        <v>531418.9477317212</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="C14" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D14" t="n">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="E14" t="n">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F14" t="n">
-        <v>1040.8708</v>
+        <v>15385.0358</v>
       </c>
       <c r="G14" t="n">
-        <v>454.75</v>
+        <v>516033.9119317212</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C15" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D15" t="n">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="E15" t="n">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F15" t="n">
-        <v>9416.535599999999</v>
+        <v>666.1762</v>
       </c>
       <c r="G15" t="n">
-        <v>454.95</v>
+        <v>516700.0881317212</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C16" t="n">
         <v>460</v>
       </c>
       <c r="D16" t="n">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E16" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F16" t="n">
-        <v>2507.6601</v>
+        <v>769.8735</v>
       </c>
       <c r="G16" t="n">
-        <v>455.65</v>
+        <v>515930.2146317212</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C17" t="n">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="D17" t="n">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="F17" t="n">
-        <v>2337.4236</v>
+        <v>6145.3511</v>
       </c>
       <c r="G17" t="n">
-        <v>456.3</v>
+        <v>515930.2146317212</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C18" t="n">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D18" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E18" t="n">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="F18" t="n">
-        <v>12488.8734</v>
+        <v>12361.7688</v>
       </c>
       <c r="G18" t="n">
-        <v>456.5</v>
+        <v>503568.4458317212</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="C19" t="n">
+        <v>460</v>
+      </c>
+      <c r="D19" t="n">
+        <v>461</v>
+      </c>
+      <c r="E19" t="n">
         <v>458</v>
       </c>
-      <c r="D19" t="n">
-        <v>458</v>
-      </c>
-      <c r="E19" t="n">
-        <v>452</v>
-      </c>
       <c r="F19" t="n">
-        <v>3.5325</v>
+        <v>4946.829604989</v>
       </c>
       <c r="G19" t="n">
-        <v>456.65</v>
+        <v>508515.2754367102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C20" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D20" t="n">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E20" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F20" t="n">
-        <v>1927.3127</v>
+        <v>8211.934943478</v>
       </c>
       <c r="G20" t="n">
-        <v>456.7</v>
+        <v>500303.3404932322</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C21" t="n">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D21" t="n">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E21" t="n">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F21" t="n">
-        <v>1085.7071</v>
+        <v>42882.2398</v>
       </c>
       <c r="G21" t="n">
-        <v>456.7</v>
+        <v>457421.1006932322</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C22" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D22" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E22" t="n">
         <v>451</v>
       </c>
       <c r="F22" t="n">
-        <v>7689.2653</v>
+        <v>5504.5524</v>
       </c>
       <c r="G22" t="n">
-        <v>456.4</v>
+        <v>462925.6530932322</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C23" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D23" t="n">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="E23" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F23" t="n">
-        <v>55.0266</v>
+        <v>2323.2215</v>
       </c>
       <c r="G23" t="n">
-        <v>456</v>
+        <v>465248.8745932322</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,32 +1230,38 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C24" t="n">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D24" t="n">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="E24" t="n">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F24" t="n">
-        <v>2238.0712</v>
+        <v>126311.4904</v>
       </c>
       <c r="G24" t="n">
-        <v>455.6</v>
+        <v>338937.3841932322</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>453</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1272,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C25" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D25" t="n">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E25" t="n">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="F25" t="n">
-        <v>26594.8485</v>
+        <v>16234.8074</v>
       </c>
       <c r="G25" t="n">
-        <v>455.45</v>
+        <v>322702.5767932322</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1290,12 +1296,12 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -1308,22 +1314,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="C26" t="n">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D26" t="n">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E26" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="F26" t="n">
-        <v>3456.2065</v>
+        <v>23604.2586</v>
       </c>
       <c r="G26" t="n">
-        <v>455.05</v>
+        <v>346306.8353932322</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1332,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
@@ -1350,22 +1356,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C27" t="n">
         <v>452</v>
       </c>
       <c r="D27" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E27" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F27" t="n">
-        <v>5811.5231</v>
+        <v>9249.821</v>
       </c>
       <c r="G27" t="n">
-        <v>454.65</v>
+        <v>337057.0143932322</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1374,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
@@ -1392,22 +1398,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C28" t="n">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D28" t="n">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E28" t="n">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F28" t="n">
-        <v>5218.4817</v>
+        <v>43175.306729824</v>
       </c>
       <c r="G28" t="n">
-        <v>454.8</v>
+        <v>380232.3211230562</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1437,27 +1443,29 @@
         <v>456</v>
       </c>
       <c r="C29" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D29" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E29" t="n">
         <v>455</v>
       </c>
       <c r="F29" t="n">
-        <v>45</v>
+        <v>10076.783782106</v>
       </c>
       <c r="G29" t="n">
-        <v>454.75</v>
+        <v>390309.1049051622</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>456</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
@@ -1477,27 +1485,29 @@
         <v>457</v>
       </c>
       <c r="C30" t="n">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="D30" t="n">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="E30" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F30" t="n">
-        <v>7522.3108</v>
+        <v>12803.796083081</v>
       </c>
       <c r="G30" t="n">
-        <v>454.85</v>
+        <v>403112.9009882432</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>460</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
@@ -1514,22 +1524,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C31" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D31" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="E31" t="n">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="F31" t="n">
-        <v>494.000906113</v>
+        <v>6640.6106</v>
       </c>
       <c r="G31" t="n">
-        <v>455</v>
+        <v>396472.2903882432</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -1538,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
@@ -1556,30 +1566,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C32" t="n">
+        <v>460</v>
+      </c>
+      <c r="D32" t="n">
+        <v>463</v>
+      </c>
+      <c r="E32" t="n">
+        <v>460</v>
+      </c>
+      <c r="F32" t="n">
+        <v>9687.550356832</v>
+      </c>
+      <c r="G32" t="n">
+        <v>386784.7400314112</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>462</v>
       </c>
-      <c r="D32" t="n">
-        <v>462</v>
-      </c>
-      <c r="E32" t="n">
-        <v>455</v>
-      </c>
-      <c r="F32" t="n">
-        <v>10504.476764923</v>
-      </c>
-      <c r="G32" t="n">
-        <v>455.2</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
@@ -1596,30 +1608,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C33" t="n">
         <v>457</v>
       </c>
       <c r="D33" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E33" t="n">
         <v>457</v>
       </c>
       <c r="F33" t="n">
-        <v>83.12390000000001</v>
+        <v>46.4119</v>
       </c>
       <c r="G33" t="n">
-        <v>455.35</v>
+        <v>386738.3281314112</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>460</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
@@ -1636,30 +1650,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C34" t="n">
         <v>458</v>
       </c>
       <c r="D34" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E34" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F34" t="n">
-        <v>1019.2701</v>
+        <v>1976.848</v>
       </c>
       <c r="G34" t="n">
-        <v>455.55</v>
+        <v>388715.1761314112</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>457</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
@@ -1676,22 +1692,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C35" t="n">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D35" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E35" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F35" t="n">
-        <v>2496.9195</v>
+        <v>220.2154</v>
       </c>
       <c r="G35" t="n">
-        <v>455.6</v>
+        <v>388494.9607314112</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1716,30 +1732,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C36" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D36" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E36" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F36" t="n">
-        <v>535.0617999999999</v>
+        <v>3257.3427</v>
       </c>
       <c r="G36" t="n">
-        <v>455.75</v>
+        <v>391752.3034314112</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>457</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
@@ -1759,27 +1777,29 @@
         <v>457</v>
       </c>
       <c r="C37" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D37" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E37" t="n">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F37" t="n">
-        <v>6473.3455</v>
+        <v>452.5181</v>
       </c>
       <c r="G37" t="n">
-        <v>455.95</v>
+        <v>391299.7853314112</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>459</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
@@ -1796,30 +1816,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C38" t="n">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D38" t="n">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E38" t="n">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F38" t="n">
-        <v>8091.6179</v>
+        <v>16311.1595</v>
       </c>
       <c r="G38" t="n">
-        <v>456.1</v>
+        <v>374988.6258314112</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>457</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
@@ -1836,30 +1858,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C39" t="n">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D39" t="n">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E39" t="n">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="F39" t="n">
-        <v>4595.5043</v>
+        <v>6218.2739</v>
       </c>
       <c r="G39" t="n">
-        <v>456.4</v>
+        <v>374988.6258314112</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>452</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
@@ -1876,30 +1900,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C40" t="n">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D40" t="n">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E40" t="n">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="F40" t="n">
-        <v>4884.7586</v>
+        <v>5472.0467</v>
       </c>
       <c r="G40" t="n">
-        <v>456.5</v>
+        <v>380460.6725314112</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>452</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
@@ -1916,30 +1942,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C41" t="n">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D41" t="n">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E41" t="n">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="F41" t="n">
-        <v>4912.0165</v>
+        <v>488.2683</v>
       </c>
       <c r="G41" t="n">
-        <v>456.55</v>
+        <v>380460.6725314112</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>454</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
@@ -1956,30 +1984,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C42" t="n">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D42" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E42" t="n">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F42" t="n">
-        <v>5968.2287</v>
+        <v>1459.0233</v>
       </c>
       <c r="G42" t="n">
-        <v>456.65</v>
+        <v>381919.6958314112</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>454</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
@@ -1996,30 +2026,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C43" t="n">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D43" t="n">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E43" t="n">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F43" t="n">
-        <v>689.9704</v>
+        <v>1040.8708</v>
       </c>
       <c r="G43" t="n">
-        <v>456.75</v>
+        <v>380878.8250314112</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>455</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
@@ -2036,30 +2068,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C44" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D44" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E44" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F44" t="n">
-        <v>1446.6252</v>
+        <v>9416.535599999999</v>
       </c>
       <c r="G44" t="n">
-        <v>457.1</v>
+        <v>390295.3606314112</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>454</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
@@ -2076,30 +2110,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C45" t="n">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D45" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E45" t="n">
         <v>457</v>
       </c>
       <c r="F45" t="n">
-        <v>11.991285403</v>
+        <v>2507.6601</v>
       </c>
       <c r="G45" t="n">
-        <v>457.35</v>
+        <v>392803.0207314112</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>458</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
@@ -2116,22 +2152,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C46" t="n">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D46" t="n">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E46" t="n">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F46" t="n">
-        <v>2824.0378</v>
+        <v>2337.4236</v>
       </c>
       <c r="G46" t="n">
-        <v>457.65</v>
+        <v>390465.5971314112</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2156,32 +2192,30 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C47" t="n">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D47" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E47" t="n">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F47" t="n">
-        <v>3635.9074</v>
+        <v>12488.8734</v>
       </c>
       <c r="G47" t="n">
-        <v>457.95</v>
+        <v>402954.4705314112</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>457</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
@@ -2198,22 +2232,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C48" t="n">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D48" t="n">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E48" t="n">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F48" t="n">
-        <v>6082.1157</v>
+        <v>3.5325</v>
       </c>
       <c r="G48" t="n">
-        <v>457.75</v>
+        <v>402958.0030314112</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2238,32 +2272,30 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C49" t="n">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D49" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E49" t="n">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="F49" t="n">
-        <v>6295.7879</v>
+        <v>1927.3127</v>
       </c>
       <c r="G49" t="n">
-        <v>457.7</v>
+        <v>401030.6903314111</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>455</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
@@ -2280,10 +2312,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C50" t="n">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D50" t="n">
         <v>457</v>
@@ -2292,20 +2324,18 @@
         <v>453</v>
       </c>
       <c r="F50" t="n">
-        <v>808961.6074</v>
+        <v>1085.7071</v>
       </c>
       <c r="G50" t="n">
-        <v>457.5</v>
+        <v>401030.6903314111</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>453</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
@@ -2322,32 +2352,30 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C51" t="n">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D51" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E51" t="n">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F51" t="n">
-        <v>2784026.545</v>
+        <v>7689.2653</v>
       </c>
       <c r="G51" t="n">
-        <v>457.45</v>
+        <v>393341.4250314111</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>454</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
@@ -2367,19 +2395,19 @@
         <v>455</v>
       </c>
       <c r="C52" t="n">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D52" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E52" t="n">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F52" t="n">
-        <v>1921189.8897</v>
+        <v>55.0266</v>
       </c>
       <c r="G52" t="n">
-        <v>457.45</v>
+        <v>393396.4516314111</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -2388,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
@@ -2406,22 +2434,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D53" t="n">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E53" t="n">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F53" t="n">
-        <v>6260.871519037</v>
+        <v>2238.0712</v>
       </c>
       <c r="G53" t="n">
-        <v>457.35</v>
+        <v>391158.3804314111</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -2430,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
@@ -2448,30 +2476,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C54" t="n">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D54" t="n">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E54" t="n">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F54" t="n">
-        <v>494200</v>
+        <v>26594.8485</v>
       </c>
       <c r="G54" t="n">
-        <v>457.2</v>
+        <v>364563.5319314111</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>451</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
@@ -2488,30 +2518,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>451</v>
+      </c>
+      <c r="C55" t="n">
         <v>455</v>
       </c>
-      <c r="C55" t="n">
-        <v>456</v>
-      </c>
       <c r="D55" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E55" t="n">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F55" t="n">
-        <v>729740.1506000001</v>
+        <v>3456.2065</v>
       </c>
       <c r="G55" t="n">
-        <v>457.05</v>
+        <v>368019.738431411</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>450</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
@@ -2528,30 +2560,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C56" t="n">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D56" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E56" t="n">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F56" t="n">
-        <v>758731.7206</v>
+        <v>5811.5231</v>
       </c>
       <c r="G56" t="n">
-        <v>456.85</v>
+        <v>362208.215331411</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>455</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
@@ -2568,30 +2602,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C57" t="n">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D57" t="n">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="E57" t="n">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="F57" t="n">
-        <v>628768.5653</v>
+        <v>5218.4817</v>
       </c>
       <c r="G57" t="n">
-        <v>456.8</v>
+        <v>367426.6970314111</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>452</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
@@ -2608,22 +2644,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C58" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D58" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E58" t="n">
         <v>455</v>
       </c>
       <c r="F58" t="n">
-        <v>1157202.691329759</v>
+        <v>45</v>
       </c>
       <c r="G58" t="n">
-        <v>456.6</v>
+        <v>367381.6970314111</v>
       </c>
       <c r="H58" t="n">
         <v>1</v>
@@ -2632,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
@@ -2653,19 +2689,19 @@
         <v>457</v>
       </c>
       <c r="C59" t="n">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D59" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E59" t="n">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F59" t="n">
-        <v>2813916.662290393</v>
+        <v>7522.3108</v>
       </c>
       <c r="G59" t="n">
-        <v>456.45</v>
+        <v>359859.3862314111</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
@@ -2674,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
@@ -2692,30 +2728,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C60" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D60" t="n">
         <v>458</v>
       </c>
       <c r="E60" t="n">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F60" t="n">
-        <v>4026177.4175</v>
+        <v>494.000906113</v>
       </c>
       <c r="G60" t="n">
-        <v>456.35</v>
+        <v>360353.3871375241</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>454</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
@@ -2732,30 +2770,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C61" t="n">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D61" t="n">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="E61" t="n">
         <v>455</v>
       </c>
       <c r="F61" t="n">
-        <v>4130382.8316</v>
+        <v>10504.476764923</v>
       </c>
       <c r="G61" t="n">
-        <v>456.3</v>
+        <v>370857.8639024471</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>458</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
@@ -2772,30 +2812,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C62" t="n">
         <v>457</v>
       </c>
       <c r="D62" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E62" t="n">
         <v>457</v>
       </c>
       <c r="F62" t="n">
-        <v>3645972.2479</v>
+        <v>83.12390000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>456.25</v>
+        <v>370774.7400024471</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>462</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
@@ -2812,30 +2854,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C63" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D63" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E63" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F63" t="n">
-        <v>1368791.992009607</v>
+        <v>1019.2701</v>
       </c>
       <c r="G63" t="n">
-        <v>456.25</v>
+        <v>371794.0101024471</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>457</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
@@ -2855,27 +2899,29 @@
         <v>458</v>
       </c>
       <c r="C64" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D64" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E64" t="n">
         <v>458</v>
       </c>
       <c r="F64" t="n">
-        <v>2080196.7889</v>
+        <v>2496.9195</v>
       </c>
       <c r="G64" t="n">
-        <v>456.2</v>
+        <v>374290.9296024471</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>458</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
@@ -2892,30 +2938,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>460</v>
+      </c>
+      <c r="C65" t="n">
         <v>458</v>
       </c>
-      <c r="C65" t="n">
-        <v>459</v>
-      </c>
       <c r="D65" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E65" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F65" t="n">
-        <v>891863.806</v>
+        <v>535.0617999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>456.15</v>
+        <v>373755.8678024471</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>460</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
@@ -2932,30 +2980,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C66" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D66" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E66" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F66" t="n">
-        <v>2013822.074714597</v>
+        <v>6473.3455</v>
       </c>
       <c r="G66" t="n">
-        <v>456.25</v>
+        <v>380229.2133024471</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>458</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
@@ -2972,30 +3022,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C67" t="n">
+        <v>461</v>
+      </c>
+      <c r="D67" t="n">
+        <v>462</v>
+      </c>
+      <c r="E67" t="n">
         <v>460</v>
       </c>
-      <c r="D67" t="n">
+      <c r="F67" t="n">
+        <v>8091.6179</v>
+      </c>
+      <c r="G67" t="n">
+        <v>380229.2133024471</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
         <v>461</v>
       </c>
-      <c r="E67" t="n">
-        <v>459</v>
-      </c>
-      <c r="F67" t="n">
-        <v>868800.871517353</v>
-      </c>
-      <c r="G67" t="n">
-        <v>456.35</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
@@ -3015,27 +3067,29 @@
         <v>460</v>
       </c>
       <c r="C68" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D68" t="n">
         <v>461</v>
       </c>
       <c r="E68" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F68" t="n">
-        <v>1609912.5127</v>
+        <v>4595.5043</v>
       </c>
       <c r="G68" t="n">
-        <v>456.55</v>
+        <v>380229.2133024471</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>461</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
@@ -3052,30 +3106,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C69" t="n">
+        <v>459</v>
+      </c>
+      <c r="D69" t="n">
+        <v>459</v>
+      </c>
+      <c r="E69" t="n">
+        <v>458</v>
+      </c>
+      <c r="F69" t="n">
+        <v>4884.7586</v>
+      </c>
+      <c r="G69" t="n">
+        <v>375344.4547024471</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
         <v>461</v>
       </c>
-      <c r="D69" t="n">
-        <v>462</v>
-      </c>
-      <c r="E69" t="n">
-        <v>460</v>
-      </c>
-      <c r="F69" t="n">
-        <v>144143.410782647</v>
-      </c>
-      <c r="G69" t="n">
-        <v>456.8</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
@@ -3092,30 +3148,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C70" t="n">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D70" t="n">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E70" t="n">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F70" t="n">
-        <v>10570.936635077</v>
+        <v>4912.0165</v>
       </c>
       <c r="G70" t="n">
-        <v>457.25</v>
+        <v>370432.4382024471</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>459</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
@@ -3132,30 +3190,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C71" t="n">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D71" t="n">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E71" t="n">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F71" t="n">
-        <v>15167.7855</v>
+        <v>5968.2287</v>
       </c>
       <c r="G71" t="n">
-        <v>457.7</v>
+        <v>364464.2095024471</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>458</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
@@ -3172,30 +3232,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="C72" t="n">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D72" t="n">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="E72" t="n">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F72" t="n">
-        <v>33084.959</v>
+        <v>689.9704</v>
       </c>
       <c r="G72" t="n">
-        <v>458.3</v>
+        <v>364464.2095024471</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>457</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
@@ -3212,30 +3274,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="C73" t="n">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="D73" t="n">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="E73" t="n">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="F73" t="n">
-        <v>39093.8493</v>
+        <v>1446.6252</v>
       </c>
       <c r="G73" t="n">
-        <v>459.25</v>
+        <v>365910.8347024471</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>457</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
@@ -3252,30 +3316,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="C74" t="n">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="D74" t="n">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="E74" t="n">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="F74" t="n">
-        <v>6532.6407</v>
+        <v>11.991285403</v>
       </c>
       <c r="G74" t="n">
-        <v>460.2</v>
+        <v>365898.8434170441</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>459</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
@@ -3292,30 +3358,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="C75" t="n">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D75" t="n">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="E75" t="n">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F75" t="n">
-        <v>2256.6573</v>
+        <v>2824.0378</v>
       </c>
       <c r="G75" t="n">
-        <v>460.85</v>
+        <v>365898.8434170441</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>457</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
@@ -3332,30 +3400,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="C76" t="n">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="D76" t="n">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="E76" t="n">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F76" t="n">
-        <v>4024.5933</v>
+        <v>3635.9074</v>
       </c>
       <c r="G76" t="n">
-        <v>461.5</v>
+        <v>362262.9360170441</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>457</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
@@ -3372,30 +3442,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C77" t="n">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="D77" t="n">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="E77" t="n">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="F77" t="n">
-        <v>4345.0927</v>
+        <v>6082.1157</v>
       </c>
       <c r="G77" t="n">
-        <v>462.15</v>
+        <v>356180.820317044</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>456</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
@@ -3412,30 +3484,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C78" t="n">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="D78" t="n">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="E78" t="n">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="F78" t="n">
-        <v>2564.807037313</v>
+        <v>6295.7879</v>
       </c>
       <c r="G78" t="n">
-        <v>462.7</v>
+        <v>349885.032417044</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>455</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
@@ -3452,30 +3526,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="C79" t="n">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="D79" t="n">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="F79" t="n">
-        <v>6963.6576</v>
+        <v>808961.6074</v>
       </c>
       <c r="G79" t="n">
-        <v>463.2</v>
+        <v>1158846.639817044</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>453</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
@@ -3492,30 +3568,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="C80" t="n">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="D80" t="n">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="E80" t="n">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="F80" t="n">
-        <v>19965.029262687</v>
+        <v>2784026.545</v>
       </c>
       <c r="G80" t="n">
-        <v>463.8</v>
+        <v>3942873.184817044</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>454</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
@@ -3532,30 +3610,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="C81" t="n">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="D81" t="n">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="E81" t="n">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="F81" t="n">
-        <v>30611.721549263</v>
+        <v>1921189.8897</v>
       </c>
       <c r="G81" t="n">
-        <v>464.5</v>
+        <v>5864063.074517044</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>455</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
@@ -3572,22 +3652,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="C82" t="n">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="D82" t="n">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="E82" t="n">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="F82" t="n">
-        <v>70730.803350737</v>
+        <v>6260.871519037</v>
       </c>
       <c r="G82" t="n">
-        <v>465.4</v>
+        <v>5857802.202998008</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3612,72 +3692,76 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="C83" t="n">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="D83" t="n">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="E83" t="n">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="F83" t="n">
-        <v>3670.7871</v>
+        <v>494200</v>
       </c>
       <c r="G83" t="n">
-        <v>466.55</v>
+        <v>5857802.202998008</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
-        <v>1.026607538802661</v>
-      </c>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="C84" t="n">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="D84" t="n">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="E84" t="n">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="F84" t="n">
-        <v>3674.8505</v>
+        <v>729740.1506000001</v>
       </c>
       <c r="G84" t="n">
-        <v>467.35</v>
+        <v>6587542.353598008</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3688,32 +3772,36 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="C85" t="n">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="D85" t="n">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="E85" t="n">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="F85" t="n">
-        <v>5401.6727</v>
+        <v>758731.7206</v>
       </c>
       <c r="G85" t="n">
-        <v>468.4</v>
+        <v>6587542.353598008</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3724,32 +3812,36 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="C86" t="n">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="D86" t="n">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="E86" t="n">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="F86" t="n">
-        <v>3106.593433611</v>
+        <v>628768.5653</v>
       </c>
       <c r="G86" t="n">
-        <v>469.2</v>
+        <v>7216310.918898008</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3760,32 +3852,36 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="C87" t="n">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="D87" t="n">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="E87" t="n">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="F87" t="n">
-        <v>12539.370650939</v>
+        <v>1157202.691329759</v>
       </c>
       <c r="G87" t="n">
-        <v>470.15</v>
+        <v>7216310.918898008</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3796,32 +3892,36 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="C88" t="n">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="D88" t="n">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="E88" t="n">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="F88" t="n">
-        <v>14850.88751545</v>
+        <v>2813916.662290393</v>
       </c>
       <c r="G88" t="n">
-        <v>471.1</v>
+        <v>7216310.918898008</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3832,32 +3932,36 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="C89" t="n">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="D89" t="n">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="E89" t="n">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="F89" t="n">
-        <v>4251.6027</v>
+        <v>4026177.4175</v>
       </c>
       <c r="G89" t="n">
-        <v>472</v>
+        <v>7216310.918898008</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3868,32 +3972,36 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="C90" t="n">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="D90" t="n">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="E90" t="n">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="F90" t="n">
-        <v>43.5916</v>
+        <v>4130382.8316</v>
       </c>
       <c r="G90" t="n">
-        <v>472.9</v>
+        <v>7216310.918898008</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3904,32 +4012,36 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="C91" t="n">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="D91" t="n">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="E91" t="n">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="F91" t="n">
-        <v>12151.6828</v>
+        <v>3645972.2479</v>
       </c>
       <c r="G91" t="n">
-        <v>473.65</v>
+        <v>7216310.918898008</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3940,32 +4052,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="C92" t="n">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="D92" t="n">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="E92" t="n">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="F92" t="n">
-        <v>2023.668</v>
+        <v>1368791.992009607</v>
       </c>
       <c r="G92" t="n">
-        <v>474.05</v>
+        <v>8585102.910907615</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3976,32 +4092,36 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="C93" t="n">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="D93" t="n">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="E93" t="n">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="F93" t="n">
-        <v>886.4087</v>
+        <v>2080196.7889</v>
       </c>
       <c r="G93" t="n">
-        <v>474.15</v>
+        <v>6504906.122007615</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4012,32 +4132,36 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="C94" t="n">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="D94" t="n">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="E94" t="n">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="F94" t="n">
-        <v>725.6802</v>
+        <v>891863.806</v>
       </c>
       <c r="G94" t="n">
-        <v>474.2</v>
+        <v>7396769.928007615</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4048,32 +4172,36 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="C95" t="n">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="D95" t="n">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="E95" t="n">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="F95" t="n">
-        <v>10339.0337</v>
+        <v>2013822.074714597</v>
       </c>
       <c r="G95" t="n">
-        <v>474.5</v>
+        <v>7396769.928007615</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4084,32 +4212,36 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C96" t="n">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D96" t="n">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E96" t="n">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="F96" t="n">
-        <v>4832.952290486</v>
+        <v>868800.871517353</v>
       </c>
       <c r="G96" t="n">
-        <v>474.7</v>
+        <v>8265570.799524968</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4120,22 +4252,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="C97" t="n">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="D97" t="n">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="E97" t="n">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="F97" t="n">
-        <v>1139.4832</v>
+        <v>1609912.5127</v>
       </c>
       <c r="G97" t="n">
-        <v>474.85</v>
+        <v>8265570.799524968</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4145,7 +4277,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4156,32 +4292,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="C98" t="n">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D98" t="n">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E98" t="n">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="F98" t="n">
-        <v>5764.1785</v>
+        <v>144143.410782647</v>
       </c>
       <c r="G98" t="n">
-        <v>474.95</v>
+        <v>8409714.210307615</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4192,22 +4332,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C99" t="n">
+        <v>462</v>
+      </c>
+      <c r="D99" t="n">
         <v>463</v>
       </c>
-      <c r="D99" t="n">
-        <v>466</v>
-      </c>
       <c r="E99" t="n">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F99" t="n">
-        <v>5221.1802</v>
+        <v>10570.936635077</v>
       </c>
       <c r="G99" t="n">
-        <v>474.9</v>
+        <v>8420285.146942692</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4217,7 +4357,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4231,19 +4375,19 @@
         <v>463</v>
       </c>
       <c r="C100" t="n">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="D100" t="n">
+        <v>466</v>
+      </c>
+      <c r="E100" t="n">
         <v>463</v>
       </c>
-      <c r="E100" t="n">
-        <v>460</v>
-      </c>
       <c r="F100" t="n">
-        <v>34882.7273</v>
+        <v>15167.7855</v>
       </c>
       <c r="G100" t="n">
-        <v>474.6</v>
+        <v>8435452.932442691</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4253,7 +4397,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4264,22 +4412,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="C101" t="n">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="D101" t="n">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="E101" t="n">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="F101" t="n">
-        <v>1947.1018</v>
+        <v>33084.959</v>
       </c>
       <c r="G101" t="n">
-        <v>473.9</v>
+        <v>8468537.891442692</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4289,7 +4437,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4300,22 +4452,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="C102" t="n">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="D102" t="n">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="E102" t="n">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="F102" t="n">
-        <v>11218.646450107</v>
+        <v>39093.8493</v>
       </c>
       <c r="G102" t="n">
-        <v>473.05</v>
+        <v>8468537.891442692</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4325,7 +4477,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4336,22 +4492,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="C103" t="n">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="D103" t="n">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="E103" t="n">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="F103" t="n">
-        <v>6726.1403</v>
+        <v>6532.6407</v>
       </c>
       <c r="G103" t="n">
-        <v>472.05</v>
+        <v>8462005.250742693</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4361,7 +4517,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4372,22 +4532,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="C104" t="n">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="D104" t="n">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="E104" t="n">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="F104" t="n">
-        <v>21790.9416</v>
+        <v>2256.6573</v>
       </c>
       <c r="G104" t="n">
-        <v>471.25</v>
+        <v>8459748.593442693</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4397,7 +4557,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4408,22 +4572,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="C105" t="n">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="D105" t="n">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="E105" t="n">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="F105" t="n">
-        <v>905.5431</v>
+        <v>4024.5933</v>
       </c>
       <c r="G105" t="n">
-        <v>470.05</v>
+        <v>8463773.186742693</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4433,7 +4597,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4444,22 +4612,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="C106" t="n">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="D106" t="n">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="E106" t="n">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="F106" t="n">
-        <v>6503.9048</v>
+        <v>4345.0927</v>
       </c>
       <c r="G106" t="n">
-        <v>469.05</v>
+        <v>8463773.186742693</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4469,7 +4637,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4480,22 +4652,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="C107" t="n">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="D107" t="n">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="E107" t="n">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="F107" t="n">
-        <v>876147.3589</v>
+        <v>2564.807037313</v>
       </c>
       <c r="G107" t="n">
-        <v>467.95</v>
+        <v>8461208.379705381</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4505,7 +4677,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4516,22 +4692,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="C108" t="n">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="D108" t="n">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="E108" t="n">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="F108" t="n">
-        <v>348707.1363</v>
+        <v>6963.6576</v>
       </c>
       <c r="G108" t="n">
-        <v>466.85</v>
+        <v>8468172.037305381</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4541,7 +4717,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4552,22 +4732,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="C109" t="n">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="D109" t="n">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="E109" t="n">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="F109" t="n">
-        <v>27634.2537</v>
+        <v>19965.029262687</v>
       </c>
       <c r="G109" t="n">
-        <v>465.9</v>
+        <v>8488137.066568067</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4577,7 +4757,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4588,22 +4772,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="C110" t="n">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D110" t="n">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="E110" t="n">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="F110" t="n">
-        <v>87551.7981</v>
+        <v>30611.721549263</v>
       </c>
       <c r="G110" t="n">
-        <v>465.05</v>
+        <v>8518748.788117331</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4613,7 +4797,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4624,32 +4812,36 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="C111" t="n">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D111" t="n">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="E111" t="n">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="F111" t="n">
-        <v>322895.779100854</v>
+        <v>70730.803350737</v>
       </c>
       <c r="G111" t="n">
-        <v>464.55</v>
+        <v>8589479.591468068</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4660,32 +4852,36 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="C112" t="n">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="D112" t="n">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="E112" t="n">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="F112" t="n">
-        <v>2343633.2153</v>
+        <v>3670.7871</v>
       </c>
       <c r="G112" t="n">
-        <v>464.2</v>
+        <v>8585808.804368068</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4696,32 +4892,36 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C113" t="n">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="D113" t="n">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="E113" t="n">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="F113" t="n">
-        <v>3025043.746</v>
+        <v>3674.8505</v>
       </c>
       <c r="G113" t="n">
-        <v>463.65</v>
+        <v>8589483.654868068</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4732,32 +4932,36 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="C114" t="n">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="D114" t="n">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E114" t="n">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="F114" t="n">
-        <v>1814077.2507</v>
+        <v>5401.6727</v>
       </c>
       <c r="G114" t="n">
-        <v>463</v>
+        <v>8584081.982168067</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4768,32 +4972,36 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="C115" t="n">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="D115" t="n">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="E115" t="n">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="F115" t="n">
-        <v>1411532.1006</v>
+        <v>3106.593433611</v>
       </c>
       <c r="G115" t="n">
-        <v>462.35</v>
+        <v>8580975.388734456</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4804,22 +5012,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="C116" t="n">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="D116" t="n">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E116" t="n">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="F116" t="n">
-        <v>695616.5509</v>
+        <v>12539.370650939</v>
       </c>
       <c r="G116" t="n">
-        <v>461.8</v>
+        <v>8593514.759385396</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4829,7 +5037,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4840,22 +5052,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="C117" t="n">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="D117" t="n">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="E117" t="n">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="F117" t="n">
-        <v>2514.5518</v>
+        <v>14850.88751545</v>
       </c>
       <c r="G117" t="n">
-        <v>461.25</v>
+        <v>8578663.871869946</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4865,7 +5077,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4876,22 +5092,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="C118" t="n">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="D118" t="n">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="E118" t="n">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="F118" t="n">
-        <v>17581.8235</v>
+        <v>4251.6027</v>
       </c>
       <c r="G118" t="n">
-        <v>460.8</v>
+        <v>8582915.474569947</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4901,7 +5117,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4912,22 +5132,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="C119" t="n">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="D119" t="n">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="E119" t="n">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="F119" t="n">
-        <v>2038.656</v>
+        <v>43.5916</v>
       </c>
       <c r="G119" t="n">
-        <v>460.5</v>
+        <v>8582915.474569947</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4937,7 +5157,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4948,22 +5172,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="C120" t="n">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="D120" t="n">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="E120" t="n">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="F120" t="n">
-        <v>327.413043478</v>
+        <v>12151.6828</v>
       </c>
       <c r="G120" t="n">
-        <v>460.3</v>
+        <v>8570763.791769946</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4973,11 +5197,1141 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
       <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>475</v>
+      </c>
+      <c r="C121" t="n">
+        <v>473</v>
+      </c>
+      <c r="D121" t="n">
+        <v>475</v>
+      </c>
+      <c r="E121" t="n">
+        <v>473</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2023.668</v>
+      </c>
+      <c r="G121" t="n">
+        <v>8568740.123769946</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>477</v>
+      </c>
+      <c r="C122" t="n">
+        <v>475</v>
+      </c>
+      <c r="D122" t="n">
+        <v>477</v>
+      </c>
+      <c r="E122" t="n">
+        <v>474</v>
+      </c>
+      <c r="F122" t="n">
+        <v>886.4087</v>
+      </c>
+      <c r="G122" t="n">
+        <v>8569626.532469947</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>475</v>
+      </c>
+      <c r="C123" t="n">
+        <v>474</v>
+      </c>
+      <c r="D123" t="n">
+        <v>475</v>
+      </c>
+      <c r="E123" t="n">
+        <v>474</v>
+      </c>
+      <c r="F123" t="n">
+        <v>725.6802</v>
+      </c>
+      <c r="G123" t="n">
+        <v>8568900.852269948</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>474</v>
+      </c>
+      <c r="C124" t="n">
+        <v>470</v>
+      </c>
+      <c r="D124" t="n">
+        <v>474</v>
+      </c>
+      <c r="E124" t="n">
+        <v>470</v>
+      </c>
+      <c r="F124" t="n">
+        <v>10339.0337</v>
+      </c>
+      <c r="G124" t="n">
+        <v>8558561.818569947</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>473</v>
+      </c>
+      <c r="C125" t="n">
+        <v>473</v>
+      </c>
+      <c r="D125" t="n">
+        <v>473</v>
+      </c>
+      <c r="E125" t="n">
+        <v>472</v>
+      </c>
+      <c r="F125" t="n">
+        <v>4832.952290486</v>
+      </c>
+      <c r="G125" t="n">
+        <v>8563394.770860434</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>472</v>
+      </c>
+      <c r="C126" t="n">
+        <v>472</v>
+      </c>
+      <c r="D126" t="n">
+        <v>472</v>
+      </c>
+      <c r="E126" t="n">
+        <v>472</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1139.4832</v>
+      </c>
+      <c r="G126" t="n">
+        <v>8562255.287660433</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>470</v>
+      </c>
+      <c r="C127" t="n">
+        <v>466</v>
+      </c>
+      <c r="D127" t="n">
+        <v>470</v>
+      </c>
+      <c r="E127" t="n">
+        <v>466</v>
+      </c>
+      <c r="F127" t="n">
+        <v>5764.1785</v>
+      </c>
+      <c r="G127" t="n">
+        <v>8556491.109160433</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>466</v>
+      </c>
+      <c r="C128" t="n">
+        <v>463</v>
+      </c>
+      <c r="D128" t="n">
+        <v>466</v>
+      </c>
+      <c r="E128" t="n">
+        <v>463</v>
+      </c>
+      <c r="F128" t="n">
+        <v>5221.1802</v>
+      </c>
+      <c r="G128" t="n">
+        <v>8551269.928960433</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>463</v>
+      </c>
+      <c r="C129" t="n">
+        <v>460</v>
+      </c>
+      <c r="D129" t="n">
+        <v>463</v>
+      </c>
+      <c r="E129" t="n">
+        <v>460</v>
+      </c>
+      <c r="F129" t="n">
+        <v>34882.7273</v>
+      </c>
+      <c r="G129" t="n">
+        <v>8516387.201660434</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>457</v>
+      </c>
+      <c r="C130" t="n">
+        <v>462</v>
+      </c>
+      <c r="D130" t="n">
+        <v>462</v>
+      </c>
+      <c r="E130" t="n">
+        <v>457</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1947.1018</v>
+      </c>
+      <c r="G130" t="n">
+        <v>8518334.303460434</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>458</v>
+      </c>
+      <c r="C131" t="n">
+        <v>462</v>
+      </c>
+      <c r="D131" t="n">
+        <v>465</v>
+      </c>
+      <c r="E131" t="n">
+        <v>458</v>
+      </c>
+      <c r="F131" t="n">
+        <v>11218.646450107</v>
+      </c>
+      <c r="G131" t="n">
+        <v>8518334.303460434</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>460</v>
+      </c>
+      <c r="C132" t="n">
+        <v>459</v>
+      </c>
+      <c r="D132" t="n">
+        <v>462</v>
+      </c>
+      <c r="E132" t="n">
+        <v>459</v>
+      </c>
+      <c r="F132" t="n">
+        <v>6726.1403</v>
+      </c>
+      <c r="G132" t="n">
+        <v>8511608.163160434</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>458</v>
+      </c>
+      <c r="C133" t="n">
+        <v>452</v>
+      </c>
+      <c r="D133" t="n">
+        <v>458</v>
+      </c>
+      <c r="E133" t="n">
+        <v>452</v>
+      </c>
+      <c r="F133" t="n">
+        <v>21790.9416</v>
+      </c>
+      <c r="G133" t="n">
+        <v>8489817.221560434</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>455</v>
+      </c>
+      <c r="C134" t="n">
+        <v>455</v>
+      </c>
+      <c r="D134" t="n">
+        <v>458</v>
+      </c>
+      <c r="E134" t="n">
+        <v>455</v>
+      </c>
+      <c r="F134" t="n">
+        <v>905.5431</v>
+      </c>
+      <c r="G134" t="n">
+        <v>8490722.764660433</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>455</v>
+      </c>
+      <c r="C135" t="n">
+        <v>455</v>
+      </c>
+      <c r="D135" t="n">
+        <v>455</v>
+      </c>
+      <c r="E135" t="n">
+        <v>453</v>
+      </c>
+      <c r="F135" t="n">
+        <v>6503.9048</v>
+      </c>
+      <c r="G135" t="n">
+        <v>8490722.764660433</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>456</v>
+      </c>
+      <c r="C136" t="n">
+        <v>457</v>
+      </c>
+      <c r="D136" t="n">
+        <v>457</v>
+      </c>
+      <c r="E136" t="n">
+        <v>456</v>
+      </c>
+      <c r="F136" t="n">
+        <v>876147.3589</v>
+      </c>
+      <c r="G136" t="n">
+        <v>9366870.123560432</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>457</v>
+      </c>
+      <c r="C137" t="n">
+        <v>459</v>
+      </c>
+      <c r="D137" t="n">
+        <v>459</v>
+      </c>
+      <c r="E137" t="n">
+        <v>457</v>
+      </c>
+      <c r="F137" t="n">
+        <v>348707.1363</v>
+      </c>
+      <c r="G137" t="n">
+        <v>9715577.259860432</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>459</v>
+      </c>
+      <c r="C138" t="n">
+        <v>463</v>
+      </c>
+      <c r="D138" t="n">
+        <v>463</v>
+      </c>
+      <c r="E138" t="n">
+        <v>459</v>
+      </c>
+      <c r="F138" t="n">
+        <v>27634.2537</v>
+      </c>
+      <c r="G138" t="n">
+        <v>9743211.513560431</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>463</v>
+      </c>
+      <c r="C139" t="n">
+        <v>468</v>
+      </c>
+      <c r="D139" t="n">
+        <v>468</v>
+      </c>
+      <c r="E139" t="n">
+        <v>463</v>
+      </c>
+      <c r="F139" t="n">
+        <v>87551.7981</v>
+      </c>
+      <c r="G139" t="n">
+        <v>9830763.311660431</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>468</v>
+      </c>
+      <c r="C140" t="n">
+        <v>468</v>
+      </c>
+      <c r="D140" t="n">
+        <v>468</v>
+      </c>
+      <c r="E140" t="n">
+        <v>467</v>
+      </c>
+      <c r="F140" t="n">
+        <v>322895.779100854</v>
+      </c>
+      <c r="G140" t="n">
+        <v>9830763.311660431</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>468</v>
+      </c>
+      <c r="C141" t="n">
+        <v>466</v>
+      </c>
+      <c r="D141" t="n">
+        <v>468</v>
+      </c>
+      <c r="E141" t="n">
+        <v>466</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2343633.2153</v>
+      </c>
+      <c r="G141" t="n">
+        <v>7487130.096360432</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>466</v>
+      </c>
+      <c r="C142" t="n">
+        <v>466</v>
+      </c>
+      <c r="D142" t="n">
+        <v>466</v>
+      </c>
+      <c r="E142" t="n">
+        <v>461</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3025043.746</v>
+      </c>
+      <c r="G142" t="n">
+        <v>7487130.096360432</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>462</v>
+      </c>
+      <c r="C143" t="n">
+        <v>462</v>
+      </c>
+      <c r="D143" t="n">
+        <v>462</v>
+      </c>
+      <c r="E143" t="n">
+        <v>461</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1814077.2507</v>
+      </c>
+      <c r="G143" t="n">
+        <v>5673052.845660432</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>461</v>
+      </c>
+      <c r="C144" t="n">
+        <v>462</v>
+      </c>
+      <c r="D144" t="n">
+        <v>465</v>
+      </c>
+      <c r="E144" t="n">
+        <v>461</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1411532.1006</v>
+      </c>
+      <c r="G144" t="n">
+        <v>5673052.845660432</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>462</v>
+      </c>
+      <c r="C145" t="n">
+        <v>461</v>
+      </c>
+      <c r="D145" t="n">
+        <v>462</v>
+      </c>
+      <c r="E145" t="n">
+        <v>461</v>
+      </c>
+      <c r="F145" t="n">
+        <v>695616.5509</v>
+      </c>
+      <c r="G145" t="n">
+        <v>4977436.294760432</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>461</v>
+      </c>
+      <c r="C146" t="n">
+        <v>455</v>
+      </c>
+      <c r="D146" t="n">
+        <v>461</v>
+      </c>
+      <c r="E146" t="n">
+        <v>455</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2514.5518</v>
+      </c>
+      <c r="G146" t="n">
+        <v>4974921.742960433</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>461</v>
+      </c>
+      <c r="C147" t="n">
+        <v>462</v>
+      </c>
+      <c r="D147" t="n">
+        <v>462</v>
+      </c>
+      <c r="E147" t="n">
+        <v>455</v>
+      </c>
+      <c r="F147" t="n">
+        <v>17581.8235</v>
+      </c>
+      <c r="G147" t="n">
+        <v>4992503.566460432</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>460</v>
+      </c>
+      <c r="C148" t="n">
+        <v>456</v>
+      </c>
+      <c r="D148" t="n">
+        <v>460</v>
+      </c>
+      <c r="E148" t="n">
+        <v>456</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2038.656</v>
+      </c>
+      <c r="G148" t="n">
+        <v>4990464.910460432</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>459</v>
+      </c>
+      <c r="C149" t="n">
+        <v>460</v>
+      </c>
+      <c r="D149" t="n">
+        <v>461</v>
+      </c>
+      <c r="E149" t="n">
+        <v>459</v>
+      </c>
+      <c r="F149" t="n">
+        <v>327.413043478</v>
+      </c>
+      <c r="G149" t="n">
+        <v>4990792.32350391</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest DAD.xlsx
+++ b/BackTest/2019-10-29 BackTest DAD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N149"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>514822.2472317212</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>503648.7203317212</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>494096.3924317213</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>531418.9477317212</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>516033.9119317212</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>516700.0881317212</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>515930.2146317212</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>515930.2146317212</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>503568.4458317212</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>508515.2754367102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>500303.3404932322</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>457421.1006932322</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>465248.8745932322</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,22 +1179,13 @@
       <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>453</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1292,22 +1212,13 @@
       <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>449</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1334,22 +1245,13 @@
       <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>440</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1376,22 +1278,13 @@
       <c r="H27" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>454</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1418,22 +1311,13 @@
       <c r="H28" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>452</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1460,22 +1344,13 @@
       <c r="H29" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>456</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1500,24 +1375,15 @@
         <v>403112.9009882432</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>460</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1542,24 +1408,15 @@
         <v>396472.2903882432</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>463</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1584,24 +1441,15 @@
         <v>386784.7400314112</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>462</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1626,24 +1474,15 @@
         <v>386738.3281314112</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>460</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1670,22 +1509,13 @@
       <c r="H34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>457</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1710,22 +1540,15 @@
         <v>388494.9607314112</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1752,22 +1575,13 @@
       <c r="H36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>457</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1792,24 +1606,21 @@
         <v>391299.7853314112</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
         <v>459</v>
       </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1834,24 +1645,21 @@
         <v>374988.6258314112</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>457</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>457</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1876,24 +1684,21 @@
         <v>374988.6258314112</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
         <v>452</v>
       </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1918,24 +1723,21 @@
         <v>380460.6725314112</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
         <v>452</v>
       </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1960,24 +1762,21 @@
         <v>380460.6725314112</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
         <v>454</v>
       </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2002,24 +1801,21 @@
         <v>381919.6958314112</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
         <v>454</v>
       </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2044,24 +1840,21 @@
         <v>380878.8250314112</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>455</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>455</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2086,24 +1879,21 @@
         <v>390295.3606314112</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
         <v>454</v>
       </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2128,24 +1918,21 @@
         <v>392803.0207314112</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
         <v>458</v>
       </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2172,20 +1959,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2210,22 +1994,21 @@
         <v>402954.4705314112</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2250,22 +2033,19 @@
         <v>402958.0030314112</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2292,20 +2072,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2330,22 +2107,19 @@
         <v>401030.6903314111</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2372,20 +2146,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2410,24 +2181,21 @@
         <v>393396.4516314111</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
         <v>451</v>
       </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2452,24 +2220,21 @@
         <v>391158.3804314111</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
         <v>452</v>
       </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2494,24 +2259,21 @@
         <v>364563.5319314111</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
         <v>451</v>
       </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2538,22 +2300,17 @@
       <c r="H55" t="n">
         <v>1</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>450</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2580,22 +2337,17 @@
       <c r="H56" t="n">
         <v>1</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>455</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2622,22 +2374,17 @@
       <c r="H57" t="n">
         <v>1</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>452</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2664,22 +2411,17 @@
       <c r="H58" t="n">
         <v>1</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>462</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2706,22 +2448,17 @@
       <c r="H59" t="n">
         <v>1</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>459</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2748,22 +2485,17 @@
       <c r="H60" t="n">
         <v>1</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>454</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2790,22 +2522,17 @@
       <c r="H61" t="n">
         <v>1</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>458</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2830,24 +2557,21 @@
         <v>370774.7400024471</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
         <v>462</v>
       </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2872,24 +2596,21 @@
         <v>371794.0101024471</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>457</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>457</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2914,24 +2635,21 @@
         <v>374290.9296024471</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
         <v>458</v>
       </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2956,24 +2674,21 @@
         <v>373755.8678024471</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
         <v>460</v>
       </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2998,24 +2713,21 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
         <v>458</v>
       </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3040,24 +2752,21 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
         <v>461</v>
       </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3082,24 +2791,21 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
         <v>461</v>
       </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3124,24 +2830,21 @@
         <v>375344.4547024471</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
         <v>461</v>
       </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3166,24 +2869,21 @@
         <v>370432.4382024471</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
         <v>459</v>
       </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3208,24 +2908,21 @@
         <v>364464.2095024471</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
         <v>458</v>
       </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3250,24 +2947,21 @@
         <v>364464.2095024471</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>457</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>457</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3292,24 +2986,21 @@
         <v>365910.8347024471</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>457</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>457</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3334,24 +3025,21 @@
         <v>365898.8434170441</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
         <v>459</v>
       </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3376,24 +3064,21 @@
         <v>365898.8434170441</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>457</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>457</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3418,24 +3103,21 @@
         <v>362262.9360170441</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>457</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>457</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3460,24 +3142,21 @@
         <v>356180.820317044</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
         <v>456</v>
       </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3502,24 +3181,21 @@
         <v>349885.032417044</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>455</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>455</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3544,24 +3220,21 @@
         <v>1158846.639817044</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
         <v>453</v>
       </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3586,24 +3259,21 @@
         <v>3942873.184817044</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
         <v>454</v>
       </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3628,24 +3298,21 @@
         <v>5864063.074517044</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>455</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>455</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3670,22 +3337,21 @@
         <v>5857802.202998008</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3712,20 +3378,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3752,20 +3415,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3792,20 +3452,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3830,22 +3487,21 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3872,20 +3528,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3910,22 +3563,21 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3950,22 +3602,21 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3990,22 +3641,21 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4030,22 +3680,21 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4070,22 +3719,21 @@
         <v>8585102.910907615</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4110,22 +3758,21 @@
         <v>6504906.122007615</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4150,22 +3797,21 @@
         <v>7396769.928007615</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4190,22 +3836,21 @@
         <v>7396769.928007615</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4230,22 +3875,21 @@
         <v>8265570.799524968</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4270,22 +3914,21 @@
         <v>8265570.799524968</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4310,22 +3953,21 @@
         <v>8409714.210307615</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4350,22 +3992,21 @@
         <v>8420285.146942692</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4390,22 +4031,21 @@
         <v>8435452.932442691</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4430,22 +4070,21 @@
         <v>8468537.891442692</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4472,20 +4111,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4510,22 +4146,21 @@
         <v>8462005.250742693</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4552,20 +4187,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4590,22 +4222,21 @@
         <v>8463773.186742693</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4632,20 +4263,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4670,22 +4298,21 @@
         <v>8461208.379705381</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4712,20 +4339,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4750,22 +4374,21 @@
         <v>8488137.066568067</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4792,20 +4415,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4832,20 +4452,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4872,20 +4489,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4912,20 +4526,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4952,20 +4563,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4992,20 +4600,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5032,20 +4637,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5070,22 +4672,17 @@
         <v>8578663.871869946</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5110,22 +4707,15 @@
         <v>8582915.474569947</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5150,22 +4740,15 @@
         <v>8582915.474569947</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5190,22 +4773,15 @@
         <v>8570763.791769946</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5230,22 +4806,15 @@
         <v>8568740.123769946</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5270,22 +4839,15 @@
         <v>8569626.532469947</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5310,22 +4872,15 @@
         <v>8568900.852269948</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5350,22 +4905,15 @@
         <v>8558561.818569947</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5390,22 +4938,15 @@
         <v>8563394.770860434</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5430,22 +4971,15 @@
         <v>8562255.287660433</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5472,20 +5006,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5510,22 +5037,15 @@
         <v>8551269.928960433</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5550,22 +5070,15 @@
         <v>8516387.201660434</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5592,20 +5105,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5630,22 +5136,15 @@
         <v>8518334.303460434</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5670,22 +5169,15 @@
         <v>8511608.163160434</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5710,22 +5202,15 @@
         <v>8489817.221560434</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5750,22 +5235,15 @@
         <v>8490722.764660433</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5790,22 +5268,15 @@
         <v>8490722.764660433</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5830,22 +5301,19 @@
         <v>9366870.123560432</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
+        <v>455</v>
+      </c>
+      <c r="J136" t="n">
+        <v>455</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5870,22 +5338,23 @@
         <v>9715577.259860432</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>457</v>
+      </c>
+      <c r="J137" t="n">
+        <v>455</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5910,22 +5379,23 @@
         <v>9743211.513560431</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>459</v>
+      </c>
+      <c r="J138" t="n">
+        <v>455</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5950,22 +5420,23 @@
         <v>9830763.311660431</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>463</v>
+      </c>
+      <c r="J139" t="n">
+        <v>455</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5990,22 +5461,21 @@
         <v>9830763.311660431</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>455</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6032,18 +5502,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>455</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
       </c>
       <c r="M141" t="inlineStr"/>
-      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6068,18 +5539,21 @@
         <v>7487130.096360432</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>455</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6106,16 +5580,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>455</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6142,16 +5619,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>455</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6178,16 +5658,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>455</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6212,18 +5695,21 @@
         <v>4974921.742960433</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>455</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6250,16 +5736,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>455</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6286,16 +5775,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>455</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6322,18 +5814,21 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>455</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest DAD.xlsx
+++ b/BackTest/2019-10-29 BackTest DAD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,10 +682,14 @@
         <v>514822.2472317212</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>467</v>
+      </c>
+      <c r="J9" t="n">
+        <v>467</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -717,9 +721,17 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>467</v>
+      </c>
+      <c r="J10" t="n">
+        <v>467</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -750,9 +762,17 @@
       <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>467</v>
+      </c>
+      <c r="J11" t="n">
+        <v>467</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -783,9 +803,17 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>462</v>
+      </c>
+      <c r="J12" t="n">
+        <v>467</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -816,9 +844,17 @@
       <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>460</v>
+      </c>
+      <c r="J13" t="n">
+        <v>467</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -849,9 +885,17 @@
       <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>462</v>
+      </c>
+      <c r="J14" t="n">
+        <v>467</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -882,9 +926,17 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>455</v>
+      </c>
+      <c r="J15" t="n">
+        <v>467</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -915,9 +967,17 @@
       <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>463</v>
+      </c>
+      <c r="J16" t="n">
+        <v>467</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -948,9 +1008,17 @@
       <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>460</v>
+      </c>
+      <c r="J17" t="n">
+        <v>467</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -981,9 +1049,17 @@
       <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>460</v>
+      </c>
+      <c r="J18" t="n">
+        <v>467</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1014,9 +1090,17 @@
       <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>459</v>
+      </c>
+      <c r="J19" t="n">
+        <v>467</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1047,9 +1131,17 @@
       <c r="H20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>460</v>
+      </c>
+      <c r="J20" t="n">
+        <v>467</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1080,9 +1172,17 @@
       <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>458</v>
+      </c>
+      <c r="J21" t="n">
+        <v>467</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1211,19 @@
         <v>462925.6530932322</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>451</v>
+      </c>
+      <c r="J22" t="n">
+        <v>467</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1146,9 +1254,17 @@
       <c r="H23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>452</v>
+      </c>
+      <c r="J23" t="n">
+        <v>467</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1179,9 +1295,17 @@
       <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>453</v>
+      </c>
+      <c r="J24" t="n">
+        <v>467</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1212,9 +1336,17 @@
       <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>449</v>
+      </c>
+      <c r="J25" t="n">
+        <v>467</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1245,9 +1377,17 @@
       <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>440</v>
+      </c>
+      <c r="J26" t="n">
+        <v>467</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1278,9 +1418,17 @@
       <c r="H27" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>454</v>
+      </c>
+      <c r="J27" t="n">
+        <v>467</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1311,9 +1459,17 @@
       <c r="H28" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>452</v>
+      </c>
+      <c r="J28" t="n">
+        <v>467</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1344,9 +1500,17 @@
       <c r="H29" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>456</v>
+      </c>
+      <c r="J29" t="n">
+        <v>467</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1539,19 @@
         <v>403112.9009882432</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>460</v>
+      </c>
+      <c r="J30" t="n">
+        <v>467</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1580,19 @@
         <v>396472.2903882432</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>463</v>
+      </c>
+      <c r="J31" t="n">
+        <v>467</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1621,19 @@
         <v>386784.7400314112</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>462</v>
+      </c>
+      <c r="J32" t="n">
+        <v>467</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1662,19 @@
         <v>386738.3281314112</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>460</v>
+      </c>
+      <c r="J33" t="n">
+        <v>467</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1509,9 +1705,17 @@
       <c r="H34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>457</v>
+      </c>
+      <c r="J34" t="n">
+        <v>467</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1542,9 +1746,17 @@
       <c r="H35" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>458</v>
+      </c>
+      <c r="J35" t="n">
+        <v>467</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1575,9 +1787,17 @@
       <c r="H36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>457</v>
+      </c>
+      <c r="J36" t="n">
+        <v>467</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,15 +1826,17 @@
         <v>391299.7853314112</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>459</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>467</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -1645,12 +1867,14 @@
         <v>374988.6258314112</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>457</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>467</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1684,12 +1908,14 @@
         <v>374988.6258314112</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>452</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>467</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1723,12 +1949,14 @@
         <v>380460.6725314112</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>452</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>467</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1762,12 +1990,14 @@
         <v>380460.6725314112</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>454</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>467</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1801,12 +2031,14 @@
         <v>381919.6958314112</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>454</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>467</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1840,12 +2072,14 @@
         <v>380878.8250314112</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>455</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>467</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1879,12 +2113,14 @@
         <v>390295.3606314112</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>454</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>467</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1918,12 +2154,14 @@
         <v>392803.0207314112</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>458</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>467</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1957,10 +2195,14 @@
         <v>390465.5971314112</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>460</v>
+      </c>
+      <c r="J46" t="n">
+        <v>467</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1994,12 +2236,14 @@
         <v>402954.4705314112</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>453</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>467</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2035,8 +2279,12 @@
       <c r="H48" t="n">
         <v>1</v>
       </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>454</v>
+      </c>
+      <c r="J48" t="n">
+        <v>467</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2070,10 +2318,14 @@
         <v>401030.6903314111</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>458</v>
+      </c>
+      <c r="J49" t="n">
+        <v>467</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2109,8 +2361,12 @@
       <c r="H50" t="n">
         <v>1</v>
       </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>457</v>
+      </c>
+      <c r="J50" t="n">
+        <v>467</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2144,10 +2400,14 @@
         <v>393341.4250314111</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>457</v>
+      </c>
+      <c r="J51" t="n">
+        <v>467</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2181,12 +2441,14 @@
         <v>393396.4516314111</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>451</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>467</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2220,12 +2482,14 @@
         <v>391158.3804314111</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>452</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>467</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2259,12 +2523,14 @@
         <v>364563.5319314111</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>451</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>467</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2300,8 +2566,12 @@
       <c r="H55" t="n">
         <v>1</v>
       </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>450</v>
+      </c>
+      <c r="J55" t="n">
+        <v>467</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2337,8 +2607,12 @@
       <c r="H56" t="n">
         <v>1</v>
       </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>455</v>
+      </c>
+      <c r="J56" t="n">
+        <v>467</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2374,8 +2648,12 @@
       <c r="H57" t="n">
         <v>1</v>
       </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>452</v>
+      </c>
+      <c r="J57" t="n">
+        <v>467</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2411,8 +2689,12 @@
       <c r="H58" t="n">
         <v>1</v>
       </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>462</v>
+      </c>
+      <c r="J58" t="n">
+        <v>467</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2448,8 +2730,12 @@
       <c r="H59" t="n">
         <v>1</v>
       </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>459</v>
+      </c>
+      <c r="J59" t="n">
+        <v>467</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2485,8 +2771,12 @@
       <c r="H60" t="n">
         <v>1</v>
       </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>454</v>
+      </c>
+      <c r="J60" t="n">
+        <v>467</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2522,8 +2812,12 @@
       <c r="H61" t="n">
         <v>1</v>
       </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>458</v>
+      </c>
+      <c r="J61" t="n">
+        <v>467</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2557,12 +2851,14 @@
         <v>370774.7400024471</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>462</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>467</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2596,12 +2892,14 @@
         <v>371794.0101024471</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>457</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>467</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2635,12 +2933,14 @@
         <v>374290.9296024471</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>458</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>467</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2674,12 +2974,14 @@
         <v>373755.8678024471</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>460</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>467</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2713,12 +3015,14 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>458</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>467</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2752,12 +3056,14 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>461</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>467</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2791,12 +3097,14 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>461</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>467</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2830,12 +3138,14 @@
         <v>375344.4547024471</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>461</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>467</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2869,12 +3179,14 @@
         <v>370432.4382024471</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>459</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>467</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2908,12 +3220,14 @@
         <v>364464.2095024471</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>458</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>467</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2947,12 +3261,14 @@
         <v>364464.2095024471</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>457</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>467</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2986,12 +3302,14 @@
         <v>365910.8347024471</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>457</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>467</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3025,12 +3343,14 @@
         <v>365898.8434170441</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>459</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>467</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3064,12 +3384,14 @@
         <v>365898.8434170441</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>457</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>467</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3103,12 +3425,14 @@
         <v>362262.9360170441</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>457</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>467</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3142,12 +3466,14 @@
         <v>356180.820317044</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>456</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>467</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3181,12 +3507,14 @@
         <v>349885.032417044</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>455</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>467</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3220,12 +3548,14 @@
         <v>1158846.639817044</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>453</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>467</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3259,12 +3589,14 @@
         <v>3942873.184817044</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>454</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>467</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3298,12 +3630,14 @@
         <v>5864063.074517044</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>455</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>467</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3337,12 +3671,12 @@
         <v>5857802.202998008</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>456</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>467</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3379,7 +3713,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>467</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3416,7 +3752,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>467</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3453,7 +3791,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>467</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3487,12 +3827,14 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>456</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>467</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3526,10 +3868,14 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>457</v>
+      </c>
+      <c r="J87" t="n">
+        <v>467</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3563,12 +3909,14 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>457</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>467</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3602,12 +3950,12 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>457</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>467</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3641,12 +3989,12 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>457</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>467</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3680,12 +4028,12 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>457</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>467</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3719,12 +4067,12 @@
         <v>8585102.910907615</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>457</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>467</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3758,12 +4106,14 @@
         <v>6504906.122007615</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>459</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>467</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3797,12 +4147,14 @@
         <v>7396769.928007615</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>458</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>467</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3836,12 +4188,14 @@
         <v>7396769.928007615</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>459</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>467</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3875,12 +4229,14 @@
         <v>8265570.799524968</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>459</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>467</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3914,12 +4270,14 @@
         <v>8265570.799524968</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>460</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>467</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3953,12 +4311,14 @@
         <v>8409714.210307615</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>460</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>467</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3992,12 +4352,14 @@
         <v>8420285.146942692</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>461</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>467</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4031,12 +4393,14 @@
         <v>8435452.932442691</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>462</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>467</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4070,12 +4434,14 @@
         <v>8468537.891442692</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>466</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>467</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4109,10 +4475,14 @@
         <v>8468537.891442692</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>474</v>
+      </c>
+      <c r="J102" t="n">
+        <v>467</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4146,12 +4516,12 @@
         <v>8462005.250742693</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>474</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>467</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4188,7 +4558,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>467</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4222,12 +4594,12 @@
         <v>8463773.186742693</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>467</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>467</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4264,7 +4636,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>467</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4298,12 +4672,12 @@
         <v>8461208.379705381</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>468</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>467</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4340,7 +4714,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>467</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4374,12 +4750,12 @@
         <v>8488137.066568067</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>468</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>467</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4416,7 +4792,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>467</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4453,7 +4831,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>467</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4490,7 +4870,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>467</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4527,7 +4909,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>467</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4564,7 +4948,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>467</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4601,7 +4987,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>467</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4638,7 +5026,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>467</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4672,16 +5062,20 @@
         <v>8578663.871869946</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>467</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
       <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
@@ -4707,11 +5101,17 @@
         <v>8582915.474569947</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>467</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4740,11 +5140,17 @@
         <v>8582915.474569947</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>467</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4773,11 +5179,17 @@
         <v>8570763.791769946</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>467</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4806,11 +5218,17 @@
         <v>8568740.123769946</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>467</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4839,11 +5257,17 @@
         <v>8569626.532469947</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>467</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4872,11 +5296,17 @@
         <v>8568900.852269948</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>467</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4905,11 +5335,17 @@
         <v>8558561.818569947</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>467</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4938,11 +5374,17 @@
         <v>8563394.770860434</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>467</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4971,11 +5413,17 @@
         <v>8562255.287660433</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>467</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5007,8 +5455,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>467</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5037,11 +5491,17 @@
         <v>8551269.928960433</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>467</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5070,11 +5530,17 @@
         <v>8516387.201660434</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>467</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5106,8 +5572,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>467</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5136,11 +5608,17 @@
         <v>8518334.303460434</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>467</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5169,11 +5647,17 @@
         <v>8511608.163160434</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>467</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5202,11 +5686,17 @@
         <v>8489817.221560434</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>467</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5235,11 +5725,17 @@
         <v>8490722.764660433</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>467</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5268,11 +5764,17 @@
         <v>8490722.764660433</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>467</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5301,15 +5803,17 @@
         <v>9366870.123560432</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>455</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>455</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
+        <v>467</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5338,17 +5842,15 @@
         <v>9715577.259860432</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>457</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L137" t="n">
@@ -5379,17 +5881,15 @@
         <v>9743211.513560431</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L138" t="n">
@@ -5420,17 +5920,15 @@
         <v>9830763.311660431</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>463</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L139" t="n">
@@ -5461,11 +5959,11 @@
         <v>9830763.311660431</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5500,19 +5998,19 @@
         <v>7487130.096360432</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>1</v>
+        <v>0.9928586723768736</v>
       </c>
       <c r="M141" t="inlineStr"/>
     </row>
@@ -5539,17 +6037,11 @@
         <v>7487130.096360432</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>455</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5578,17 +6070,11 @@
         <v>5673052.845660432</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>455</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5617,17 +6103,11 @@
         <v>5673052.845660432</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>455</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5656,17 +6136,11 @@
         <v>4977436.294760432</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>455</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5695,17 +6169,11 @@
         <v>4974921.742960433</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>455</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5737,14 +6205,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>455</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5776,14 +6238,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>455</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5815,20 +6271,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>455</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
       <c r="M149" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest DAD.xlsx
+++ b/BackTest/2019-10-29 BackTest DAD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,14 +682,10 @@
         <v>514822.2472317212</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>467</v>
-      </c>
-      <c r="J9" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -719,19 +715,11 @@
         <v>514822.2472317212</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>467</v>
-      </c>
-      <c r="J10" t="n">
-        <v>467</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -760,19 +748,11 @@
         <v>503648.7203317212</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>467</v>
-      </c>
-      <c r="J11" t="n">
-        <v>467</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -801,19 +781,11 @@
         <v>494096.3924317213</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>462</v>
-      </c>
-      <c r="J12" t="n">
-        <v>467</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -842,19 +814,11 @@
         <v>531418.9477317212</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>460</v>
-      </c>
-      <c r="J13" t="n">
-        <v>467</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -883,19 +847,11 @@
         <v>516033.9119317212</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>462</v>
-      </c>
-      <c r="J14" t="n">
-        <v>467</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -929,12 +885,10 @@
       <c r="I15" t="n">
         <v>455</v>
       </c>
-      <c r="J15" t="n">
-        <v>467</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -970,9 +924,7 @@
       <c r="I16" t="n">
         <v>463</v>
       </c>
-      <c r="J16" t="n">
-        <v>467</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1011,9 +963,7 @@
       <c r="I17" t="n">
         <v>460</v>
       </c>
-      <c r="J17" t="n">
-        <v>467</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1052,9 +1002,7 @@
       <c r="I18" t="n">
         <v>460</v>
       </c>
-      <c r="J18" t="n">
-        <v>467</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1093,9 +1041,7 @@
       <c r="I19" t="n">
         <v>459</v>
       </c>
-      <c r="J19" t="n">
-        <v>467</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1129,14 +1075,10 @@
         <v>500303.3404932322</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>460</v>
-      </c>
-      <c r="J20" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1170,14 +1112,10 @@
         <v>457421.1006932322</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>458</v>
-      </c>
-      <c r="J21" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1211,14 +1149,10 @@
         <v>462925.6530932322</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>451</v>
-      </c>
-      <c r="J22" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1257,9 +1191,7 @@
       <c r="I23" t="n">
         <v>452</v>
       </c>
-      <c r="J23" t="n">
-        <v>467</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1298,9 +1230,7 @@
       <c r="I24" t="n">
         <v>453</v>
       </c>
-      <c r="J24" t="n">
-        <v>467</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1339,9 +1269,7 @@
       <c r="I25" t="n">
         <v>449</v>
       </c>
-      <c r="J25" t="n">
-        <v>467</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1380,9 +1308,7 @@
       <c r="I26" t="n">
         <v>440</v>
       </c>
-      <c r="J26" t="n">
-        <v>467</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1421,9 +1347,7 @@
       <c r="I27" t="n">
         <v>454</v>
       </c>
-      <c r="J27" t="n">
-        <v>467</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1462,9 +1386,7 @@
       <c r="I28" t="n">
         <v>452</v>
       </c>
-      <c r="J28" t="n">
-        <v>467</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1503,9 +1425,7 @@
       <c r="I29" t="n">
         <v>456</v>
       </c>
-      <c r="J29" t="n">
-        <v>467</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1544,9 +1464,7 @@
       <c r="I30" t="n">
         <v>460</v>
       </c>
-      <c r="J30" t="n">
-        <v>467</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1580,14 +1498,10 @@
         <v>396472.2903882432</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>463</v>
-      </c>
-      <c r="J31" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1621,14 +1535,10 @@
         <v>386784.7400314112</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>462</v>
-      </c>
-      <c r="J32" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1662,14 +1572,10 @@
         <v>386738.3281314112</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>460</v>
-      </c>
-      <c r="J33" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1703,14 +1609,10 @@
         <v>388715.1761314112</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>457</v>
-      </c>
-      <c r="J34" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1744,14 +1646,10 @@
         <v>388494.9607314112</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>458</v>
-      </c>
-      <c r="J35" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1790,9 +1688,7 @@
       <c r="I36" t="n">
         <v>457</v>
       </c>
-      <c r="J36" t="n">
-        <v>467</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1831,9 +1727,7 @@
       <c r="I37" t="n">
         <v>459</v>
       </c>
-      <c r="J37" t="n">
-        <v>467</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1872,9 +1766,7 @@
       <c r="I38" t="n">
         <v>457</v>
       </c>
-      <c r="J38" t="n">
-        <v>467</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1913,9 +1805,7 @@
       <c r="I39" t="n">
         <v>452</v>
       </c>
-      <c r="J39" t="n">
-        <v>467</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1954,9 +1844,7 @@
       <c r="I40" t="n">
         <v>452</v>
       </c>
-      <c r="J40" t="n">
-        <v>467</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1995,9 +1883,7 @@
       <c r="I41" t="n">
         <v>454</v>
       </c>
-      <c r="J41" t="n">
-        <v>467</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2036,9 +1922,7 @@
       <c r="I42" t="n">
         <v>454</v>
       </c>
-      <c r="J42" t="n">
-        <v>467</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2077,9 +1961,7 @@
       <c r="I43" t="n">
         <v>455</v>
       </c>
-      <c r="J43" t="n">
-        <v>467</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2118,9 +2000,7 @@
       <c r="I44" t="n">
         <v>454</v>
       </c>
-      <c r="J44" t="n">
-        <v>467</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2159,9 +2039,7 @@
       <c r="I45" t="n">
         <v>458</v>
       </c>
-      <c r="J45" t="n">
-        <v>467</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2200,9 +2078,7 @@
       <c r="I46" t="n">
         <v>460</v>
       </c>
-      <c r="J46" t="n">
-        <v>467</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2241,9 +2117,7 @@
       <c r="I47" t="n">
         <v>453</v>
       </c>
-      <c r="J47" t="n">
-        <v>467</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2282,9 +2156,7 @@
       <c r="I48" t="n">
         <v>454</v>
       </c>
-      <c r="J48" t="n">
-        <v>467</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2323,9 +2195,7 @@
       <c r="I49" t="n">
         <v>458</v>
       </c>
-      <c r="J49" t="n">
-        <v>467</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2359,14 +2229,10 @@
         <v>401030.6903314111</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>457</v>
-      </c>
-      <c r="J50" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2400,14 +2266,10 @@
         <v>393341.4250314111</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>457</v>
-      </c>
-      <c r="J51" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2441,14 +2303,10 @@
         <v>393396.4516314111</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>451</v>
-      </c>
-      <c r="J52" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2482,14 +2340,10 @@
         <v>391158.3804314111</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>452</v>
-      </c>
-      <c r="J53" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2528,9 +2382,7 @@
       <c r="I54" t="n">
         <v>451</v>
       </c>
-      <c r="J54" t="n">
-        <v>467</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2569,9 +2421,7 @@
       <c r="I55" t="n">
         <v>450</v>
       </c>
-      <c r="J55" t="n">
-        <v>467</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2610,9 +2460,7 @@
       <c r="I56" t="n">
         <v>455</v>
       </c>
-      <c r="J56" t="n">
-        <v>467</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2646,14 +2494,10 @@
         <v>367426.6970314111</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>452</v>
-      </c>
-      <c r="J57" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2687,14 +2531,10 @@
         <v>367381.6970314111</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>462</v>
-      </c>
-      <c r="J58" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2728,14 +2568,10 @@
         <v>359859.3862314111</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>459</v>
-      </c>
-      <c r="J59" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2769,14 +2605,10 @@
         <v>360353.3871375241</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>454</v>
-      </c>
-      <c r="J60" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2810,14 +2642,10 @@
         <v>370857.8639024471</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>458</v>
-      </c>
-      <c r="J61" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2851,14 +2679,10 @@
         <v>370774.7400024471</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>462</v>
-      </c>
-      <c r="J62" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2892,14 +2716,10 @@
         <v>371794.0101024471</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>457</v>
-      </c>
-      <c r="J63" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2933,14 +2753,10 @@
         <v>374290.9296024471</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>458</v>
-      </c>
-      <c r="J64" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2974,14 +2790,10 @@
         <v>373755.8678024471</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>460</v>
-      </c>
-      <c r="J65" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3015,14 +2827,10 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>458</v>
-      </c>
-      <c r="J66" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3056,14 +2864,10 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>461</v>
-      </c>
-      <c r="J67" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3097,14 +2901,10 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>461</v>
-      </c>
-      <c r="J68" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3138,14 +2938,10 @@
         <v>375344.4547024471</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>461</v>
-      </c>
-      <c r="J69" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3179,14 +2975,10 @@
         <v>370432.4382024471</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>459</v>
-      </c>
-      <c r="J70" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3220,14 +3012,10 @@
         <v>364464.2095024471</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>458</v>
-      </c>
-      <c r="J71" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3261,14 +3049,10 @@
         <v>364464.2095024471</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>457</v>
-      </c>
-      <c r="J72" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3302,14 +3086,10 @@
         <v>365910.8347024471</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>457</v>
-      </c>
-      <c r="J73" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3343,14 +3123,10 @@
         <v>365898.8434170441</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>459</v>
-      </c>
-      <c r="J74" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3384,14 +3160,10 @@
         <v>365898.8434170441</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>457</v>
-      </c>
-      <c r="J75" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3425,14 +3197,10 @@
         <v>362262.9360170441</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>457</v>
-      </c>
-      <c r="J76" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3466,14 +3234,10 @@
         <v>356180.820317044</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>456</v>
-      </c>
-      <c r="J77" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3507,14 +3271,10 @@
         <v>349885.032417044</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>455</v>
-      </c>
-      <c r="J78" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3548,14 +3308,10 @@
         <v>1158846.639817044</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>453</v>
-      </c>
-      <c r="J79" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3589,14 +3345,10 @@
         <v>3942873.184817044</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>454</v>
-      </c>
-      <c r="J80" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3630,14 +3382,10 @@
         <v>5864063.074517044</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>455</v>
-      </c>
-      <c r="J81" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3674,9 +3422,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>467</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3713,9 +3459,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>467</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3752,9 +3496,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>467</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3791,9 +3533,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>467</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3827,14 +3567,10 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>456</v>
-      </c>
-      <c r="J86" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3868,14 +3604,10 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>457</v>
-      </c>
-      <c r="J87" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3909,14 +3641,10 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>457</v>
-      </c>
-      <c r="J88" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3950,20 +3678,16 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>467</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -3989,17 +3713,11 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>467</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -4028,17 +3746,11 @@
         <v>7216310.918898008</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>467</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4067,17 +3779,11 @@
         <v>8585102.910907615</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>467</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4106,19 +3812,11 @@
         <v>6504906.122007615</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>459</v>
-      </c>
-      <c r="J93" t="n">
-        <v>467</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4147,19 +3845,11 @@
         <v>7396769.928007615</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>458</v>
-      </c>
-      <c r="J94" t="n">
-        <v>467</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4188,19 +3878,11 @@
         <v>7396769.928007615</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>459</v>
-      </c>
-      <c r="J95" t="n">
-        <v>467</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4229,19 +3911,11 @@
         <v>8265570.799524968</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>459</v>
-      </c>
-      <c r="J96" t="n">
-        <v>467</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4270,19 +3944,11 @@
         <v>8265570.799524968</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>460</v>
-      </c>
-      <c r="J97" t="n">
-        <v>467</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4311,19 +3977,11 @@
         <v>8409714.210307615</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>460</v>
-      </c>
-      <c r="J98" t="n">
-        <v>467</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4352,19 +4010,11 @@
         <v>8420285.146942692</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>461</v>
-      </c>
-      <c r="J99" t="n">
-        <v>467</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4393,19 +4043,11 @@
         <v>8435452.932442691</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>462</v>
-      </c>
-      <c r="J100" t="n">
-        <v>467</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4434,19 +4076,11 @@
         <v>8468537.891442692</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>466</v>
-      </c>
-      <c r="J101" t="n">
-        <v>467</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4475,19 +4109,11 @@
         <v>8468537.891442692</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>474</v>
-      </c>
-      <c r="J102" t="n">
-        <v>467</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4516,17 +4142,11 @@
         <v>8462005.250742693</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>467</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4555,17 +4175,11 @@
         <v>8459748.593442693</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>467</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4594,17 +4208,11 @@
         <v>8463773.186742693</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>467</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4633,17 +4241,11 @@
         <v>8463773.186742693</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>467</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4672,17 +4274,11 @@
         <v>8461208.379705381</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>467</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4711,17 +4307,11 @@
         <v>8468172.037305381</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>467</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4750,17 +4340,11 @@
         <v>8488137.066568067</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>467</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4789,17 +4373,11 @@
         <v>8518748.788117331</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>467</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4828,17 +4406,11 @@
         <v>8589479.591468068</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>467</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4867,17 +4439,11 @@
         <v>8585808.804368068</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>467</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4906,17 +4472,11 @@
         <v>8589483.654868068</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>467</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4945,17 +4505,11 @@
         <v>8584081.982168067</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>467</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4984,17 +4538,11 @@
         <v>8580975.388734456</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>467</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -5023,17 +4571,11 @@
         <v>8593514.759385396</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>467</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5062,17 +4604,11 @@
         <v>8578663.871869946</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>467</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5101,17 +4637,11 @@
         <v>8582915.474569947</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>467</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5140,17 +4670,11 @@
         <v>8582915.474569947</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>467</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5179,17 +4703,11 @@
         <v>8570763.791769946</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>467</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5218,17 +4736,11 @@
         <v>8568740.123769946</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>467</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5257,17 +4769,11 @@
         <v>8569626.532469947</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>467</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5296,17 +4802,11 @@
         <v>8568900.852269948</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>467</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5335,17 +4835,11 @@
         <v>8558561.818569947</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>467</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5374,17 +4868,11 @@
         <v>8563394.770860434</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>467</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5413,17 +4901,11 @@
         <v>8562255.287660433</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>467</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5452,17 +4934,11 @@
         <v>8556491.109160433</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>467</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5491,17 +4967,11 @@
         <v>8551269.928960433</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>467</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5533,14 +5003,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>467</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5572,14 +5036,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>467</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5611,14 +5069,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>467</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5650,14 +5102,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>467</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5689,14 +5135,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>467</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5728,14 +5168,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>467</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5767,14 +5201,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>467</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5806,14 +5234,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>467</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5845,14 +5267,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>467</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5884,14 +5300,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>467</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5923,14 +5333,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>467</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5962,14 +5366,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>467</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5998,19 +5396,13 @@
         <v>7487130.096360432</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>467</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>0.9928586723768736</v>
+        <v>1</v>
       </c>
       <c r="M141" t="inlineStr"/>
     </row>
@@ -6070,7 +5462,7 @@
         <v>5673052.845660432</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -6103,7 +5495,7 @@
         <v>5673052.845660432</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -6136,7 +5528,7 @@
         <v>4977436.294760432</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -6279,6 +5671,6 @@
       <c r="M149" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest DAD.xlsx
+++ b/BackTest/2019-10-29 BackTest DAD.xlsx
@@ -880,17 +880,11 @@
         <v>516700.0881317212</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>455</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -919,17 +913,11 @@
         <v>515930.2146317212</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>463</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -958,17 +946,11 @@
         <v>515930.2146317212</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -997,17 +979,11 @@
         <v>503568.4458317212</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1036,17 +1012,11 @@
         <v>508515.2754367102</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1079,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1116,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1153,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1186,17 +1144,11 @@
         <v>465248.8745932322</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>452</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1225,17 +1177,11 @@
         <v>338937.3841932322</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1264,17 +1210,11 @@
         <v>322702.5767932322</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>449</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1311,7 +1251,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1535,9 +1475,11 @@
         <v>386784.7400314112</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>462</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1572,9 +1514,11 @@
         <v>386738.3281314112</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>460</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1609,9 +1553,11 @@
         <v>388715.1761314112</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>457</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1722,11 +1668,9 @@
         <v>391299.7853314112</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>459</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1761,11 +1705,9 @@
         <v>374988.6258314112</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>457</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1800,11 +1742,9 @@
         <v>374988.6258314112</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>452</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -2073,11 +2013,9 @@
         <v>390465.5971314112</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2112,11 +2050,9 @@
         <v>402954.4705314112</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2190,11 +2126,9 @@
         <v>401030.6903314111</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>458</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2303,9 +2237,11 @@
         <v>393396.4516314111</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>451</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2340,9 +2276,11 @@
         <v>391158.3804314111</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>452</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2494,9 +2432,11 @@
         <v>367426.6970314111</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>452</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2531,9 +2471,11 @@
         <v>367381.6970314111</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>462</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2568,9 +2510,11 @@
         <v>359859.3862314111</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>459</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2605,9 +2549,11 @@
         <v>360353.3871375241</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>454</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2642,9 +2588,11 @@
         <v>370857.8639024471</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>458</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2679,9 +2627,11 @@
         <v>370774.7400024471</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>462</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2716,9 +2666,11 @@
         <v>371794.0101024471</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>457</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2753,9 +2705,11 @@
         <v>374290.9296024471</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>458</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2790,9 +2744,11 @@
         <v>373755.8678024471</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>460</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2827,9 +2783,11 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>458</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2864,9 +2822,11 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>461</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2901,9 +2861,11 @@
         <v>380229.2133024471</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>461</v>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -2938,9 +2900,11 @@
         <v>375344.4547024471</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>461</v>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -2975,9 +2939,11 @@
         <v>370432.4382024471</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>459</v>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -3012,9 +2978,11 @@
         <v>364464.2095024471</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>458</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3049,9 +3017,11 @@
         <v>364464.2095024471</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>457</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3086,9 +3056,11 @@
         <v>365910.8347024471</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>457</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3123,9 +3095,11 @@
         <v>365898.8434170441</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>459</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3160,9 +3134,11 @@
         <v>365898.8434170441</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>457</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3197,9 +3173,11 @@
         <v>362262.9360170441</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>457</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3234,9 +3212,11 @@
         <v>356180.820317044</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>456</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3271,9 +3251,11 @@
         <v>349885.032417044</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>455</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3308,9 +3290,11 @@
         <v>1158846.639817044</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>453</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3345,9 +3329,11 @@
         <v>3942873.184817044</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>454</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3812,7 +3798,7 @@
         <v>6504906.122007615</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3845,7 +3831,7 @@
         <v>7396769.928007615</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3878,7 +3864,7 @@
         <v>7396769.928007615</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3977,7 +3963,7 @@
         <v>8409714.210307615</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4109,7 +4095,7 @@
         <v>8468537.891442692</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4142,7 +4128,7 @@
         <v>8462005.250742693</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4175,7 +4161,7 @@
         <v>8459748.593442693</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4208,7 +4194,7 @@
         <v>8463773.186742693</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4241,7 +4227,7 @@
         <v>8463773.186742693</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4274,7 +4260,7 @@
         <v>8461208.379705381</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4307,7 +4293,7 @@
         <v>8468172.037305381</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4340,7 +4326,7 @@
         <v>8488137.066568067</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4373,7 +4359,7 @@
         <v>8518748.788117331</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4439,7 +4425,7 @@
         <v>8585808.804368068</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4571,7 +4557,7 @@
         <v>8593514.759385396</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4604,7 +4590,7 @@
         <v>8578663.871869946</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4637,7 +4623,7 @@
         <v>8582915.474569947</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4703,7 +4689,7 @@
         <v>8570763.791769946</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4736,7 +4722,7 @@
         <v>8568740.123769946</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4769,7 +4755,7 @@
         <v>8569626.532469947</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4802,7 +4788,7 @@
         <v>8568900.852269948</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4835,7 +4821,7 @@
         <v>8558561.818569947</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4868,7 +4854,7 @@
         <v>8563394.770860434</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4901,7 +4887,7 @@
         <v>8562255.287660433</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4934,7 +4920,7 @@
         <v>8556491.109160433</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4967,7 +4953,7 @@
         <v>8551269.928960433</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5429,7 +5415,7 @@
         <v>7487130.096360432</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest DAD.xlsx
+++ b/BackTest/2019-10-29 BackTest DAD.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:L149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>23655.7137</v>
       </c>
       <c r="G2" t="n">
-        <v>499261.5773317213</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>4763.670664135</v>
       </c>
       <c r="G3" t="n">
-        <v>499261.5773317213</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>6094.3135</v>
       </c>
       <c r="G4" t="n">
-        <v>505355.8908317212</v>
-      </c>
-      <c r="H4" t="n">
         <v>0</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>2755.7334</v>
       </c>
       <c r="G5" t="n">
-        <v>502600.1574317212</v>
-      </c>
-      <c r="H5" t="n">
         <v>0</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>23430.3301</v>
       </c>
       <c r="G6" t="n">
-        <v>526030.4875317212</v>
-      </c>
-      <c r="H6" t="n">
         <v>0</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2814.3758</v>
       </c>
       <c r="G7" t="n">
-        <v>523216.1117317213</v>
-      </c>
-      <c r="H7" t="n">
         <v>0</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>8393.8645</v>
       </c>
       <c r="G8" t="n">
-        <v>514822.2472317212</v>
-      </c>
-      <c r="H8" t="n">
         <v>0</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>7721.8298</v>
       </c>
       <c r="G9" t="n">
-        <v>514822.2472317212</v>
-      </c>
-      <c r="H9" t="n">
         <v>0</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1981.2728</v>
       </c>
       <c r="G10" t="n">
-        <v>514822.2472317212</v>
-      </c>
-      <c r="H10" t="n">
         <v>0</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>11173.5269</v>
       </c>
       <c r="G11" t="n">
-        <v>503648.7203317212</v>
-      </c>
-      <c r="H11" t="n">
         <v>0</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>9552.3279</v>
       </c>
       <c r="G12" t="n">
-        <v>494096.3924317213</v>
-      </c>
-      <c r="H12" t="n">
         <v>0</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>37322.5553</v>
       </c>
       <c r="G13" t="n">
-        <v>531418.9477317212</v>
-      </c>
-      <c r="H13" t="n">
         <v>0</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>15385.0358</v>
       </c>
       <c r="G14" t="n">
-        <v>516033.9119317212</v>
-      </c>
-      <c r="H14" t="n">
         <v>0</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>666.1762</v>
       </c>
       <c r="G15" t="n">
-        <v>516700.0881317212</v>
-      </c>
-      <c r="H15" t="n">
         <v>0</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>769.8735</v>
       </c>
       <c r="G16" t="n">
-        <v>515930.2146317212</v>
-      </c>
-      <c r="H16" t="n">
         <v>0</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>6145.3511</v>
       </c>
       <c r="G17" t="n">
-        <v>515930.2146317212</v>
-      </c>
-      <c r="H17" t="n">
         <v>0</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>12361.7688</v>
       </c>
       <c r="G18" t="n">
-        <v>503568.4458317212</v>
-      </c>
-      <c r="H18" t="n">
         <v>0</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>4946.829604989</v>
       </c>
       <c r="G19" t="n">
-        <v>508515.2754367102</v>
-      </c>
-      <c r="H19" t="n">
         <v>0</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>8211.934943478</v>
       </c>
       <c r="G20" t="n">
-        <v>500303.3404932322</v>
-      </c>
-      <c r="H20" t="n">
         <v>0</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>42882.2398</v>
       </c>
       <c r="G21" t="n">
-        <v>457421.1006932322</v>
-      </c>
-      <c r="H21" t="n">
         <v>0</v>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>5504.5524</v>
       </c>
       <c r="G22" t="n">
-        <v>462925.6530932322</v>
-      </c>
-      <c r="H22" t="n">
         <v>0</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>2323.2215</v>
       </c>
       <c r="G23" t="n">
-        <v>465248.8745932322</v>
-      </c>
-      <c r="H23" t="n">
         <v>0</v>
       </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>126311.4904</v>
       </c>
       <c r="G24" t="n">
-        <v>338937.3841932322</v>
-      </c>
-      <c r="H24" t="n">
         <v>0</v>
       </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>16234.8074</v>
       </c>
       <c r="G25" t="n">
-        <v>322702.5767932322</v>
-      </c>
-      <c r="H25" t="n">
         <v>0</v>
       </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,24 +1163,15 @@
         <v>23604.2586</v>
       </c>
       <c r="G26" t="n">
-        <v>346306.8353932322</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1279,24 +1193,21 @@
         <v>9249.821</v>
       </c>
       <c r="G27" t="n">
-        <v>337057.0143932322</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
         <v>454</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1318,24 +1229,21 @@
         <v>43175.306729824</v>
       </c>
       <c r="G28" t="n">
-        <v>380232.3211230562</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
         <v>452</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1357,24 +1265,21 @@
         <v>10076.783782106</v>
       </c>
       <c r="G29" t="n">
-        <v>390309.1049051622</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
         <v>456</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1396,24 +1301,21 @@
         <v>12803.796083081</v>
       </c>
       <c r="G30" t="n">
-        <v>403112.9009882432</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
         <v>460</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1435,22 +1337,21 @@
         <v>6640.6106</v>
       </c>
       <c r="G31" t="n">
-        <v>396472.2903882432</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1472,24 +1373,21 @@
         <v>9687.550356832</v>
       </c>
       <c r="G32" t="n">
-        <v>386784.7400314112</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
         <v>462</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1511,24 +1409,21 @@
         <v>46.4119</v>
       </c>
       <c r="G33" t="n">
-        <v>386738.3281314112</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
         <v>460</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1550,24 +1445,21 @@
         <v>1976.848</v>
       </c>
       <c r="G34" t="n">
-        <v>388715.1761314112</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>457</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>457</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1589,22 +1481,21 @@
         <v>220.2154</v>
       </c>
       <c r="G35" t="n">
-        <v>388494.9607314112</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1626,24 +1517,21 @@
         <v>3257.3427</v>
       </c>
       <c r="G36" t="n">
-        <v>391752.3034314112</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>457</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>457</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1665,22 +1553,21 @@
         <v>452.5181</v>
       </c>
       <c r="G37" t="n">
-        <v>391299.7853314112</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1702,22 +1589,21 @@
         <v>16311.1595</v>
       </c>
       <c r="G38" t="n">
-        <v>374988.6258314112</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1739,22 +1625,19 @@
         <v>6218.2739</v>
       </c>
       <c r="G39" t="n">
-        <v>374988.6258314112</v>
-      </c>
-      <c r="H39" t="n">
         <v>0</v>
       </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1776,24 +1659,21 @@
         <v>5472.0467</v>
       </c>
       <c r="G40" t="n">
-        <v>380460.6725314112</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
         <v>452</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1815,24 +1695,21 @@
         <v>488.2683</v>
       </c>
       <c r="G41" t="n">
-        <v>380460.6725314112</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
         <v>454</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1854,24 +1731,21 @@
         <v>1459.0233</v>
       </c>
       <c r="G42" t="n">
-        <v>381919.6958314112</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
         <v>454</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1893,24 +1767,21 @@
         <v>1040.8708</v>
       </c>
       <c r="G43" t="n">
-        <v>380878.8250314112</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
         <v>455</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,24 +1803,21 @@
         <v>9416.535599999999</v>
       </c>
       <c r="G44" t="n">
-        <v>390295.3606314112</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
         <v>454</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1971,24 +1839,21 @@
         <v>2507.6601</v>
       </c>
       <c r="G45" t="n">
-        <v>392803.0207314112</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
         <v>458</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2010,22 +1875,19 @@
         <v>2337.4236</v>
       </c>
       <c r="G46" t="n">
-        <v>390465.5971314112</v>
-      </c>
-      <c r="H46" t="n">
         <v>0</v>
       </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2047,22 +1909,21 @@
         <v>12488.8734</v>
       </c>
       <c r="G47" t="n">
-        <v>402954.4705314112</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2084,24 +1945,21 @@
         <v>3.5325</v>
       </c>
       <c r="G48" t="n">
-        <v>402958.0030314112</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
         <v>454</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2123,22 +1981,21 @@
         <v>1927.3127</v>
       </c>
       <c r="G49" t="n">
-        <v>401030.6903314111</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2160,22 +2017,21 @@
         <v>1085.7071</v>
       </c>
       <c r="G50" t="n">
-        <v>401030.6903314111</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2197,22 +2053,21 @@
         <v>7689.2653</v>
       </c>
       <c r="G51" t="n">
-        <v>393341.4250314111</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2234,24 +2089,21 @@
         <v>55.0266</v>
       </c>
       <c r="G52" t="n">
-        <v>393396.4516314111</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
         <v>451</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2273,24 +2125,21 @@
         <v>2238.0712</v>
       </c>
       <c r="G53" t="n">
-        <v>391158.3804314111</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
         <v>452</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2312,24 +2161,21 @@
         <v>26594.8485</v>
       </c>
       <c r="G54" t="n">
-        <v>364563.5319314111</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
         <v>451</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2351,24 +2197,21 @@
         <v>3456.2065</v>
       </c>
       <c r="G55" t="n">
-        <v>368019.738431411</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
         <v>450</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2390,24 +2233,21 @@
         <v>5811.5231</v>
       </c>
       <c r="G56" t="n">
-        <v>362208.215331411</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
         <v>455</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2429,24 +2269,21 @@
         <v>5218.4817</v>
       </c>
       <c r="G57" t="n">
-        <v>367426.6970314111</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
         <v>452</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2468,24 +2305,21 @@
         <v>45</v>
       </c>
       <c r="G58" t="n">
-        <v>367381.6970314111</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
         <v>462</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2507,24 +2341,21 @@
         <v>7522.3108</v>
       </c>
       <c r="G59" t="n">
-        <v>359859.3862314111</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
         <v>459</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,24 +2377,21 @@
         <v>494.000906113</v>
       </c>
       <c r="G60" t="n">
-        <v>360353.3871375241</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
         <v>454</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2585,24 +2413,21 @@
         <v>10504.476764923</v>
       </c>
       <c r="G61" t="n">
-        <v>370857.8639024471</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
         <v>458</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2624,24 +2449,19 @@
         <v>83.12390000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>370774.7400024471</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>462</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2663,24 +2483,19 @@
         <v>1019.2701</v>
       </c>
       <c r="G63" t="n">
-        <v>371794.0101024471</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>457</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2702,24 +2517,21 @@
         <v>2496.9195</v>
       </c>
       <c r="G64" t="n">
-        <v>374290.9296024471</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
         <v>458</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2741,24 +2553,19 @@
         <v>535.0617999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>373755.8678024471</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>460</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2780,24 +2587,21 @@
         <v>6473.3455</v>
       </c>
       <c r="G66" t="n">
-        <v>380229.2133024471</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
         <v>458</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2819,24 +2623,21 @@
         <v>8091.6179</v>
       </c>
       <c r="G67" t="n">
-        <v>380229.2133024471</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
         <v>461</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2858,24 +2659,19 @@
         <v>4595.5043</v>
       </c>
       <c r="G68" t="n">
-        <v>380229.2133024471</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>461</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2897,24 +2693,19 @@
         <v>4884.7586</v>
       </c>
       <c r="G69" t="n">
-        <v>375344.4547024471</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>461</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2936,24 +2727,19 @@
         <v>4912.0165</v>
       </c>
       <c r="G70" t="n">
-        <v>370432.4382024471</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>459</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2975,24 +2761,19 @@
         <v>5968.2287</v>
       </c>
       <c r="G71" t="n">
-        <v>364464.2095024471</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>458</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3014,24 +2795,21 @@
         <v>689.9704</v>
       </c>
       <c r="G72" t="n">
-        <v>364464.2095024471</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>457</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>457</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3053,24 +2831,21 @@
         <v>1446.6252</v>
       </c>
       <c r="G73" t="n">
-        <v>365910.8347024471</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>457</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>457</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3092,24 +2867,19 @@
         <v>11.991285403</v>
       </c>
       <c r="G74" t="n">
-        <v>365898.8434170441</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>459</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3131,24 +2901,21 @@
         <v>2824.0378</v>
       </c>
       <c r="G75" t="n">
-        <v>365898.8434170441</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>457</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>457</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3170,24 +2937,21 @@
         <v>3635.9074</v>
       </c>
       <c r="G76" t="n">
-        <v>362262.9360170441</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>457</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>457</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3209,24 +2973,21 @@
         <v>6082.1157</v>
       </c>
       <c r="G77" t="n">
-        <v>356180.820317044</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
         <v>456</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3248,24 +3009,21 @@
         <v>6295.7879</v>
       </c>
       <c r="G78" t="n">
-        <v>349885.032417044</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
         <v>455</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3287,24 +3045,21 @@
         <v>808961.6074</v>
       </c>
       <c r="G79" t="n">
-        <v>1158846.639817044</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
         <v>453</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3326,24 +3081,21 @@
         <v>2784026.545</v>
       </c>
       <c r="G80" t="n">
-        <v>3942873.184817044</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
         <v>454</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3365,22 +3117,21 @@
         <v>1921189.8897</v>
       </c>
       <c r="G81" t="n">
-        <v>5864063.074517044</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3402,22 +3153,21 @@
         <v>6260.871519037</v>
       </c>
       <c r="G82" t="n">
-        <v>5857802.202998008</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3439,22 +3189,21 @@
         <v>494200</v>
       </c>
       <c r="G83" t="n">
-        <v>5857802.202998008</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3476,22 +3225,21 @@
         <v>729740.1506000001</v>
       </c>
       <c r="G84" t="n">
-        <v>6587542.353598008</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3513,22 +3261,21 @@
         <v>758731.7206</v>
       </c>
       <c r="G85" t="n">
-        <v>6587542.353598008</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3550,22 +3297,21 @@
         <v>628768.5653</v>
       </c>
       <c r="G86" t="n">
-        <v>7216310.918898008</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3587,22 +3333,21 @@
         <v>1157202.691329759</v>
       </c>
       <c r="G87" t="n">
-        <v>7216310.918898008</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3624,22 +3369,21 @@
         <v>2813916.662290393</v>
       </c>
       <c r="G88" t="n">
-        <v>7216310.918898008</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3661,20 +3405,21 @@
         <v>4026177.4175</v>
       </c>
       <c r="G89" t="n">
-        <v>7216310.918898008</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
       </c>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3696,18 +3441,21 @@
         <v>4130382.8316</v>
       </c>
       <c r="G90" t="n">
-        <v>7216310.918898008</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3729,18 +3477,21 @@
         <v>3645972.2479</v>
       </c>
       <c r="G91" t="n">
-        <v>7216310.918898008</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3762,18 +3513,21 @@
         <v>1368791.992009607</v>
       </c>
       <c r="G92" t="n">
-        <v>8585102.910907615</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>457</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3795,18 +3549,21 @@
         <v>2080196.7889</v>
       </c>
       <c r="G93" t="n">
-        <v>6504906.122007615</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3828,18 +3585,21 @@
         <v>891863.806</v>
       </c>
       <c r="G94" t="n">
-        <v>7396769.928007615</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3861,18 +3621,21 @@
         <v>2013822.074714597</v>
       </c>
       <c r="G95" t="n">
-        <v>7396769.928007615</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3894,18 +3657,21 @@
         <v>868800.871517353</v>
       </c>
       <c r="G96" t="n">
-        <v>8265570.799524968</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3927,18 +3693,21 @@
         <v>1609912.5127</v>
       </c>
       <c r="G97" t="n">
-        <v>8265570.799524968</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3960,18 +3729,21 @@
         <v>144143.410782647</v>
       </c>
       <c r="G98" t="n">
-        <v>8409714.210307615</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3993,18 +3765,21 @@
         <v>10570.936635077</v>
       </c>
       <c r="G99" t="n">
-        <v>8420285.146942692</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4026,18 +3801,21 @@
         <v>15167.7855</v>
       </c>
       <c r="G100" t="n">
-        <v>8435452.932442691</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4059,18 +3837,21 @@
         <v>33084.959</v>
       </c>
       <c r="G101" t="n">
-        <v>8468537.891442692</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4092,18 +3873,21 @@
         <v>39093.8493</v>
       </c>
       <c r="G102" t="n">
-        <v>8468537.891442692</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4125,18 +3909,19 @@
         <v>6532.6407</v>
       </c>
       <c r="G103" t="n">
-        <v>8462005.250742693</v>
-      </c>
-      <c r="H103" t="n">
         <v>0</v>
       </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4158,18 +3943,17 @@
         <v>2256.6573</v>
       </c>
       <c r="G104" t="n">
-        <v>8459748.593442693</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4191,18 +3975,19 @@
         <v>4024.5933</v>
       </c>
       <c r="G105" t="n">
-        <v>8463773.186742693</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>467</v>
+      </c>
+      <c r="I105" t="n">
+        <v>467</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4224,18 +4009,23 @@
         <v>4345.0927</v>
       </c>
       <c r="G106" t="n">
-        <v>8463773.186742693</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>468</v>
+      </c>
+      <c r="I106" t="n">
+        <v>467</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4257,18 +4047,23 @@
         <v>2564.807037313</v>
       </c>
       <c r="G107" t="n">
-        <v>8461208.379705381</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>468</v>
+      </c>
+      <c r="I107" t="n">
+        <v>467</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4290,18 +4085,23 @@
         <v>6963.6576</v>
       </c>
       <c r="G108" t="n">
-        <v>8468172.037305381</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>467</v>
+      </c>
+      <c r="I108" t="n">
+        <v>467</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4323,18 +4123,23 @@
         <v>19965.029262687</v>
       </c>
       <c r="G109" t="n">
-        <v>8488137.066568067</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>468</v>
+      </c>
+      <c r="I109" t="n">
+        <v>467</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4356,18 +4161,23 @@
         <v>30611.721549263</v>
       </c>
       <c r="G110" t="n">
-        <v>8518748.788117331</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>471</v>
+      </c>
+      <c r="I110" t="n">
+        <v>467</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4389,18 +4199,21 @@
         <v>70730.803350737</v>
       </c>
       <c r="G111" t="n">
-        <v>8589479.591468068</v>
-      </c>
-      <c r="H111" t="n">
         <v>2</v>
       </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>467</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4422,18 +4235,21 @@
         <v>3670.7871</v>
       </c>
       <c r="G112" t="n">
-        <v>8585808.804368068</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>467</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4455,18 +4271,21 @@
         <v>3674.8505</v>
       </c>
       <c r="G113" t="n">
-        <v>8589483.654868068</v>
-      </c>
-      <c r="H113" t="n">
         <v>2</v>
       </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>467</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4488,18 +4307,21 @@
         <v>5401.6727</v>
       </c>
       <c r="G114" t="n">
-        <v>8584081.982168067</v>
-      </c>
-      <c r="H114" t="n">
         <v>2</v>
       </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>467</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4521,18 +4343,23 @@
         <v>3106.593433611</v>
       </c>
       <c r="G115" t="n">
-        <v>8580975.388734456</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>475</v>
+      </c>
+      <c r="I115" t="n">
+        <v>467</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4554,18 +4381,23 @@
         <v>12539.370650939</v>
       </c>
       <c r="G116" t="n">
-        <v>8593514.759385396</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>473</v>
+      </c>
+      <c r="I116" t="n">
+        <v>467</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4587,18 +4419,23 @@
         <v>14850.88751545</v>
       </c>
       <c r="G117" t="n">
-        <v>8578663.871869946</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>479</v>
+      </c>
+      <c r="I117" t="n">
+        <v>467</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4620,18 +4457,21 @@
         <v>4251.6027</v>
       </c>
       <c r="G118" t="n">
-        <v>8582915.474569947</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>467</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1.022837259100642</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4653,18 +4493,15 @@
         <v>43.5916</v>
       </c>
       <c r="G119" t="n">
-        <v>8582915.474569947</v>
-      </c>
-      <c r="H119" t="n">
         <v>2</v>
       </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4686,18 +4523,15 @@
         <v>12151.6828</v>
       </c>
       <c r="G120" t="n">
-        <v>8570763.791769946</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4719,18 +4553,15 @@
         <v>2023.668</v>
       </c>
       <c r="G121" t="n">
-        <v>8568740.123769946</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4752,18 +4583,15 @@
         <v>886.4087</v>
       </c>
       <c r="G122" t="n">
-        <v>8569626.532469947</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4785,18 +4613,21 @@
         <v>725.6802</v>
       </c>
       <c r="G123" t="n">
-        <v>8568900.852269948</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4818,18 +4649,21 @@
         <v>10339.0337</v>
       </c>
       <c r="G124" t="n">
-        <v>8558561.818569947</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4851,18 +4685,21 @@
         <v>4832.952290486</v>
       </c>
       <c r="G125" t="n">
-        <v>8563394.770860434</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4884,18 +4721,21 @@
         <v>1139.4832</v>
       </c>
       <c r="G126" t="n">
-        <v>8562255.287660433</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4917,18 +4757,19 @@
         <v>5764.1785</v>
       </c>
       <c r="G127" t="n">
-        <v>8556491.109160433</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4950,18 +4791,19 @@
         <v>5221.1802</v>
       </c>
       <c r="G128" t="n">
-        <v>8551269.928960433</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4983,18 +4825,19 @@
         <v>34882.7273</v>
       </c>
       <c r="G129" t="n">
-        <v>8516387.201660434</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5016,18 +4859,21 @@
         <v>1947.1018</v>
       </c>
       <c r="G130" t="n">
-        <v>8518334.303460434</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5049,18 +4895,21 @@
         <v>11218.646450107</v>
       </c>
       <c r="G131" t="n">
-        <v>8518334.303460434</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5082,18 +4931,21 @@
         <v>6726.1403</v>
       </c>
       <c r="G132" t="n">
-        <v>8511608.163160434</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5115,18 +4967,21 @@
         <v>21790.9416</v>
       </c>
       <c r="G133" t="n">
-        <v>8489817.221560434</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5148,18 +5003,21 @@
         <v>905.5431</v>
       </c>
       <c r="G134" t="n">
-        <v>8490722.764660433</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5181,18 +5039,21 @@
         <v>6503.9048</v>
       </c>
       <c r="G135" t="n">
-        <v>8490722.764660433</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5214,18 +5075,21 @@
         <v>876147.3589</v>
       </c>
       <c r="G136" t="n">
-        <v>9366870.123560432</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5247,18 +5111,21 @@
         <v>348707.1363</v>
       </c>
       <c r="G137" t="n">
-        <v>9715577.259860432</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5280,18 +5147,21 @@
         <v>27634.2537</v>
       </c>
       <c r="G138" t="n">
-        <v>9743211.513560431</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5313,18 +5183,21 @@
         <v>87551.7981</v>
       </c>
       <c r="G139" t="n">
-        <v>9830763.311660431</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5346,18 +5219,21 @@
         <v>322895.779100854</v>
       </c>
       <c r="G140" t="n">
-        <v>9830763.311660431</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5379,18 +5255,19 @@
         <v>2343633.2153</v>
       </c>
       <c r="G141" t="n">
-        <v>7487130.096360432</v>
-      </c>
-      <c r="H141" t="n">
         <v>0</v>
       </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5412,18 +5289,19 @@
         <v>3025043.746</v>
       </c>
       <c r="G142" t="n">
-        <v>7487130.096360432</v>
-      </c>
-      <c r="H142" t="n">
         <v>0</v>
       </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5445,18 +5323,19 @@
         <v>1814077.2507</v>
       </c>
       <c r="G143" t="n">
-        <v>5673052.845660432</v>
-      </c>
-      <c r="H143" t="n">
         <v>0</v>
       </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5478,18 +5357,19 @@
         <v>1411532.1006</v>
       </c>
       <c r="G144" t="n">
-        <v>5673052.845660432</v>
-      </c>
-      <c r="H144" t="n">
         <v>0</v>
       </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5511,18 +5391,19 @@
         <v>695616.5509</v>
       </c>
       <c r="G145" t="n">
-        <v>4977436.294760432</v>
-      </c>
-      <c r="H145" t="n">
         <v>0</v>
       </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5544,18 +5425,19 @@
         <v>2514.5518</v>
       </c>
       <c r="G146" t="n">
-        <v>4974921.742960433</v>
-      </c>
-      <c r="H146" t="n">
         <v>0</v>
       </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5577,18 +5459,19 @@
         <v>17581.8235</v>
       </c>
       <c r="G147" t="n">
-        <v>4992503.566460432</v>
-      </c>
-      <c r="H147" t="n">
         <v>0</v>
       </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5610,18 +5493,19 @@
         <v>2038.656</v>
       </c>
       <c r="G148" t="n">
-        <v>4990464.910460432</v>
-      </c>
-      <c r="H148" t="n">
         <v>0</v>
       </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5643,18 +5527,19 @@
         <v>327.413043478</v>
       </c>
       <c r="G149" t="n">
-        <v>4990792.32350391</v>
-      </c>
-      <c r="H149" t="n">
         <v>0</v>
       </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
